--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BE31E-A4A7-4504-B49B-B6F437BAF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAEA47E-49C3-4257-B891-595AB70E6AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2257,7 +2257,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F0EA9-2F6A-4C55-9626-7283F3BE562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9045"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1417,14 +1423,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1487,345 +1487,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1833,256 +1504,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2093,70 +1525,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2414,36 +1803,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="2:2">
+    <row r="1" spans="1:3" ht="25.8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21" spans="1:3">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2454,12 +1843,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:3">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:3">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="1:3">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2492,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="21" spans="1:3">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:3">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2514,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="1:3">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:3">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:3">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="21" spans="1:3">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="21" spans="1:3">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:3">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="21" spans="1:3">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2591,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:3">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2602,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" ht="21" spans="1:3">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2613,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="21" spans="1:3">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="21" spans="1:3">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="1:3">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2646,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="21" spans="1:3">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2657,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="21" spans="1:3">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2665,10 +2054,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="21" spans="1:3">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2687,10 +2076,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2698,10 +2087,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="21" spans="1:3">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="21" spans="1:3">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2734,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="21" spans="1:3">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2745,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="21" spans="1:3">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:3">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2767,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" ht="21" spans="1:3">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2778,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="21" spans="1:3">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2789,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="21" spans="1:3">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="21" spans="1:3">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2811,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="21" spans="1:3">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="21" spans="1:3">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" ht="21" spans="1:3">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="21" spans="1:3">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2855,20 +2244,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="21" spans="2:3">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="21" spans="1:3">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="21" spans="1:3">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2879,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="21" spans="1:3">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -2890,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="21" spans="1:3">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
@@ -2901,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="21" spans="1:3">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
@@ -2912,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="21" spans="1:3">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
@@ -2923,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="21" spans="1:3">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="9" t="s">
         <v>44</v>
       </c>
@@ -2934,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="21" spans="1:3">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="9" t="s">
         <v>44</v>
       </c>
@@ -2945,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="21" spans="1:3">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="9" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="21" spans="1:3">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="9" t="s">
         <v>44</v>
       </c>
@@ -2967,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="21" spans="1:3">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="9" t="s">
         <v>44</v>
       </c>
@@ -2978,12 +2367,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="21" spans="1:3">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" ht="21" spans="1:3">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2994,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="21" spans="1:3">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -3005,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="21" spans="1:3">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
@@ -3016,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" ht="21" spans="1:3">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -3027,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="21" spans="1:3">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -3038,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="21" spans="1:3">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
@@ -3049,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="21" spans="1:3">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -3060,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="21" spans="1:3">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -3071,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="21" spans="1:3">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
@@ -3082,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" ht="21" spans="1:3">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" ht="21" spans="1:3">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -3104,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="21" spans="1:3">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
@@ -3115,7 +2504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" ht="21" spans="1:3">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +2515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" ht="21" spans="1:3">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>55</v>
       </c>
@@ -3137,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="21" spans="1:3">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="21" spans="1:3">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>55</v>
       </c>
@@ -3159,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="21" spans="1:3">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -3170,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="21" spans="1:3">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>55</v>
       </c>
@@ -3181,7 +2570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="21" spans="1:3">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>55</v>
       </c>
@@ -3192,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="21" spans="1:3">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="21" spans="1:3">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
@@ -3214,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="21" spans="1:3">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>55</v>
       </c>
@@ -3225,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="21" spans="1:3">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>55</v>
       </c>
@@ -3236,7 +2625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="21" spans="1:3">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="21" spans="1:3">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
@@ -3258,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="21" spans="1:3">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>55</v>
       </c>
@@ -3269,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="21" spans="1:3">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>55</v>
       </c>
@@ -3280,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="21" spans="1:3">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>55</v>
       </c>
@@ -3291,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="21" spans="1:3">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>55</v>
       </c>
@@ -3302,7 +2691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="21" spans="1:3">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>55</v>
       </c>
@@ -3313,7 +2702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" ht="21" spans="1:3">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>55</v>
       </c>
@@ -3324,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="21" spans="1:3">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>55</v>
       </c>
@@ -3335,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="21" spans="1:3">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>55</v>
       </c>
@@ -3346,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="21" spans="1:3">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -3357,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="21" spans="1:3">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -3368,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="21" spans="1:3">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -3379,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="21" spans="1:3">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>55</v>
       </c>
@@ -3390,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="21" spans="1:3">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>55</v>
       </c>
@@ -3401,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="21" spans="1:3">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>55</v>
       </c>
@@ -3412,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="21" spans="1:3">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>55</v>
       </c>
@@ -3423,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="21" spans="1:3">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>55</v>
       </c>
@@ -3434,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" ht="21" spans="1:3">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>55</v>
       </c>
@@ -3445,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="21" spans="1:3">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>55</v>
       </c>
@@ -3456,12 +2845,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" ht="21" spans="1:3">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" ht="21" spans="1:3">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -3472,7 +2861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" ht="21" spans="1:3">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -3483,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" ht="21" spans="1:3">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
@@ -3494,7 +2883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" ht="21" spans="1:3">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
@@ -3505,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" ht="21" spans="1:3">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
@@ -3516,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="21" spans="1:3">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
@@ -3527,7 +2916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="21" spans="1:3">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -3538,7 +2927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" ht="21" spans="1:3">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -3549,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" ht="21" spans="1:3">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
@@ -3560,7 +2949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" ht="21" spans="1:3">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
@@ -3571,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" ht="21" spans="1:3">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
@@ -3582,7 +2971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" ht="21" spans="1:3">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
@@ -3593,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" ht="21" spans="1:3">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
@@ -3604,7 +2993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" ht="21" spans="1:3">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
@@ -3615,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="21" spans="1:3">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
@@ -3626,7 +3015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" ht="21" spans="1:3">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
@@ -3637,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" ht="21" spans="1:3">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
@@ -3648,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="21" spans="1:3">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
@@ -3659,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" ht="21" spans="1:3">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
@@ -3670,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="21" spans="1:3">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
@@ -3681,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="21" spans="1:3">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
@@ -3692,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" ht="21" spans="1:3">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
@@ -3703,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" ht="21" spans="1:3">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
@@ -3714,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" ht="21" spans="1:3">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
@@ -3725,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" ht="21" spans="1:3">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
@@ -3736,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="21" spans="1:3">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
@@ -3747,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" ht="21" spans="1:3">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3758,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" ht="21" spans="1:3">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
@@ -3769,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="21" spans="1:3">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
@@ -3780,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" ht="21" spans="1:3">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
@@ -3791,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="21" spans="1:3">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
@@ -3802,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" ht="21" spans="1:3">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
@@ -3813,7 +3202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" ht="21" spans="1:3">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="21" spans="1:3">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
@@ -3835,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="21" spans="1:3">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -3846,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="21" spans="1:3">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
@@ -3857,11 +3246,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" ht="21" spans="2:3">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" ht="21" spans="1:3">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="9" t="s">
         <v>136</v>
       </c>
@@ -3872,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" ht="21" spans="1:3">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="9" t="s">
         <v>136</v>
       </c>
@@ -3883,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="21" spans="1:3">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
@@ -3894,7 +3283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" ht="21" spans="1:3">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="9" t="s">
         <v>136</v>
       </c>
@@ -3905,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" ht="21" spans="1:3">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="9" t="s">
         <v>136</v>
       </c>
@@ -3916,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" ht="21" spans="1:3">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="9" t="s">
         <v>136</v>
       </c>
@@ -3927,7 +3316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" ht="21" spans="1:3">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="9" t="s">
         <v>136</v>
       </c>
@@ -3938,7 +3327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" ht="21" spans="1:3">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="9" t="s">
         <v>136</v>
       </c>
@@ -3949,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" ht="21" spans="1:3">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="9" t="s">
         <v>136</v>
       </c>
@@ -3960,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" ht="21" spans="1:3">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="9" t="s">
         <v>136</v>
       </c>
@@ -3971,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="21" spans="1:3">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="9" t="s">
         <v>136</v>
       </c>
@@ -3982,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="21" spans="1:3">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="9" t="s">
         <v>136</v>
       </c>
@@ -3993,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="21" spans="1:3">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="9" t="s">
         <v>136</v>
       </c>
@@ -4004,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="21" spans="1:3">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="9" t="s">
         <v>136</v>
       </c>
@@ -4015,7 +3404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" ht="21" spans="1:3">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="9" t="s">
         <v>136</v>
       </c>
@@ -4026,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" ht="21" spans="1:3">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="9" t="s">
         <v>136</v>
       </c>
@@ -4037,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" ht="21" spans="1:3">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="9" t="s">
         <v>136</v>
       </c>
@@ -4048,7 +3437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" ht="21" spans="1:3">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="9" t="s">
         <v>136</v>
       </c>
@@ -4059,7 +3448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" ht="21" spans="1:3">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="9" t="s">
         <v>136</v>
       </c>
@@ -4070,7 +3459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="21" spans="1:3">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="9" t="s">
         <v>136</v>
       </c>
@@ -4081,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" ht="21" spans="1:3">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="9" t="s">
         <v>136</v>
       </c>
@@ -4092,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" ht="21" spans="1:3">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="9" t="s">
         <v>136</v>
       </c>
@@ -4103,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="21" spans="1:3">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="9" t="s">
         <v>136</v>
       </c>
@@ -4114,7 +3503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="21" spans="1:3">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="9" t="s">
         <v>136</v>
       </c>
@@ -4125,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="21" spans="1:3">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="9" t="s">
         <v>136</v>
       </c>
@@ -4136,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="21" spans="1:3">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="9" t="s">
         <v>136</v>
       </c>
@@ -4147,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="21" spans="1:3">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="9" t="s">
         <v>136</v>
       </c>
@@ -4158,7 +3547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" ht="21" spans="1:3">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="9" t="s">
         <v>136</v>
       </c>
@@ -4169,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" ht="21" spans="1:3">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="9" t="s">
         <v>136</v>
       </c>
@@ -4180,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" ht="21" spans="1:3">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="9" t="s">
         <v>136</v>
       </c>
@@ -4191,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="21" spans="1:3">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="9" t="s">
         <v>136</v>
       </c>
@@ -4202,7 +3591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" ht="21" spans="1:3">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="9" t="s">
         <v>136</v>
       </c>
@@ -4213,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="21" spans="1:3">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="9" t="s">
         <v>136</v>
       </c>
@@ -4224,7 +3613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="21" spans="1:3">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="9" t="s">
         <v>136</v>
       </c>
@@ -4235,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" ht="21" spans="1:3">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="9" t="s">
         <v>136</v>
       </c>
@@ -4246,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="21" spans="1:3">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="9" t="s">
         <v>136</v>
       </c>
@@ -4257,11 +3646,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" ht="21" spans="2:3">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" ht="21" spans="1:3">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
@@ -4272,7 +3661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" ht="21" spans="1:3">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
@@ -4283,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" ht="21" spans="1:3">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
@@ -4294,7 +3683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" ht="21" spans="1:3">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
@@ -4305,7 +3694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" ht="21" spans="1:3">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
@@ -4316,7 +3705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" ht="21" spans="1:3">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
@@ -4327,7 +3716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" ht="21" spans="1:3">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
@@ -4338,7 +3727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" ht="21" spans="1:3">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
@@ -4349,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" ht="21" spans="1:3">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
@@ -4360,7 +3749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" ht="21" spans="1:3">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
@@ -4371,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="21" spans="1:3">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
@@ -4382,7 +3771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" ht="21" spans="1:3">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
@@ -4393,7 +3782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" ht="21" spans="1:3">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
@@ -4404,7 +3793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" ht="21" spans="1:3">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
@@ -4415,7 +3804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" ht="21" spans="1:3">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
@@ -4426,7 +3815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" ht="21" spans="1:3">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
@@ -4437,7 +3826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" ht="21" spans="1:3">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
@@ -4448,7 +3837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" ht="21" spans="1:3">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
@@ -4459,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" ht="21" spans="1:3">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
@@ -4470,7 +3859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="21" spans="1:3">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
@@ -4481,7 +3870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="21" spans="1:3">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
@@ -4492,7 +3881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="21" spans="1:3">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
@@ -4503,7 +3892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="21" spans="1:3">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
@@ -4514,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="21" spans="1:3">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
@@ -4525,7 +3914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="21" spans="1:3">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
@@ -4536,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="21" spans="1:3">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
@@ -4547,7 +3936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" ht="21" spans="1:3">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
@@ -4558,7 +3947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="21" spans="1:3">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
@@ -4569,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" ht="21" spans="1:3">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
@@ -4580,7 +3969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="21" spans="1:3">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
@@ -4591,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="21" spans="1:3">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
@@ -4602,7 +3991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="21" spans="1:3">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
@@ -4613,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="21" spans="1:3">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
@@ -4624,7 +4013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="21" spans="1:3">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
@@ -4635,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" ht="21" spans="1:3">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
@@ -4646,17 +4035,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="21" spans="1:3">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" ht="21" spans="1:3">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" ht="21" spans="1:3">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
@@ -4667,7 +4056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" ht="21" spans="1:3">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
@@ -4678,7 +4067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" ht="21" spans="1:3">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
@@ -4689,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" ht="21" spans="1:3">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
@@ -4700,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" ht="21" spans="1:3">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
@@ -4711,7 +4100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" ht="21" spans="1:3">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
@@ -4722,7 +4111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" ht="21" spans="1:3">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
@@ -4733,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="21" spans="1:3">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
@@ -4744,7 +4133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" ht="21" spans="1:3">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
@@ -4755,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" ht="21" spans="1:3">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
@@ -4766,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" ht="21" spans="1:3">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
@@ -4777,7 +4166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" ht="21" spans="1:3">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
@@ -4788,7 +4177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" ht="21" spans="1:3">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
@@ -4799,7 +4188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" ht="21" spans="1:3">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
@@ -4810,7 +4199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" ht="21" spans="1:3">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
@@ -4821,7 +4210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" ht="21" spans="1:3">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
@@ -4832,7 +4221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" ht="21" spans="1:3">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
@@ -4843,7 +4232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" ht="21" spans="1:3">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
@@ -4854,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" ht="21" spans="1:3">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>209</v>
       </c>
@@ -4865,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" ht="21" spans="1:3">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>209</v>
       </c>
@@ -4876,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" ht="21" spans="1:3">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -4887,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" ht="21" spans="1:3">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
@@ -4898,15 +4287,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" ht="21" spans="2:3">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" ht="21" spans="2:3">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" ht="21" spans="1:3">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>232</v>
       </c>
@@ -4917,7 +4306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" ht="21" spans="1:3">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>232</v>
       </c>
@@ -4928,7 +4317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" ht="21" spans="1:3">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>232</v>
       </c>
@@ -4939,7 +4328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" ht="21" spans="1:3">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>232</v>
       </c>
@@ -4950,7 +4339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" ht="21" spans="1:3">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>232</v>
       </c>
@@ -4961,7 +4350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" ht="21" spans="1:3">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>232</v>
       </c>
@@ -4972,7 +4361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" ht="21" spans="1:3">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>232</v>
       </c>
@@ -4983,7 +4372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" ht="21" spans="1:3">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>232</v>
       </c>
@@ -4991,10 +4380,10 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>232</v>
       </c>
@@ -5005,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" ht="21" spans="1:3">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>232</v>
       </c>
@@ -5016,7 +4405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" ht="21" spans="1:3">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>232</v>
       </c>
@@ -5027,7 +4416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" ht="21" spans="1:3">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>232</v>
       </c>
@@ -5038,7 +4427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" ht="21" spans="1:3">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>232</v>
       </c>
@@ -5049,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" ht="21" spans="1:3">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>232</v>
       </c>
@@ -5060,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" ht="21" spans="1:3">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>232</v>
       </c>
@@ -5071,7 +4460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" ht="21" spans="1:3">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>232</v>
       </c>
@@ -5082,7 +4471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" ht="21" spans="1:3">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>232</v>
       </c>
@@ -5093,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" ht="21" spans="1:3">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>232</v>
       </c>
@@ -5104,7 +4493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" ht="21" spans="1:3">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>232</v>
       </c>
@@ -5115,7 +4504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" ht="21" spans="1:3">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -5126,7 +4515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" ht="21" spans="1:3">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>232</v>
       </c>
@@ -5137,7 +4526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" ht="21" spans="1:3">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>232</v>
       </c>
@@ -5148,7 +4537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" ht="21" spans="1:3">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>232</v>
       </c>
@@ -5159,7 +4548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" ht="21" spans="1:3">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>232</v>
       </c>
@@ -5170,7 +4559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" ht="21" spans="1:3">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>232</v>
       </c>
@@ -5181,7 +4570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" ht="21" spans="1:3">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>232</v>
       </c>
@@ -5192,7 +4581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" ht="21" spans="1:3">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>232</v>
       </c>
@@ -5203,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" ht="21" spans="1:3">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>232</v>
       </c>
@@ -5214,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" ht="21" spans="1:3">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>232</v>
       </c>
@@ -5225,7 +4614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" ht="21" spans="1:3">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>232</v>
       </c>
@@ -5236,7 +4625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" ht="21" spans="1:3">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>232</v>
       </c>
@@ -5247,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" ht="21" spans="1:3">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>232</v>
       </c>
@@ -5258,7 +4647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" ht="21" spans="1:3">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>232</v>
       </c>
@@ -5269,7 +4658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" ht="21" spans="1:3">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>232</v>
       </c>
@@ -5280,7 +4669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" ht="21" spans="1:3">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>232</v>
       </c>
@@ -5291,15 +4680,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" ht="21" spans="2:3">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" ht="21" spans="2:3">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" ht="21" spans="1:3">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>267</v>
       </c>
@@ -5310,7 +4699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" ht="21" spans="1:3">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>267</v>
       </c>
@@ -5321,7 +4710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" ht="21" spans="1:3">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>267</v>
       </c>
@@ -5332,7 +4721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" ht="21" spans="1:3">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>267</v>
       </c>
@@ -5343,7 +4732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" ht="21" spans="1:3">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>267</v>
       </c>
@@ -5354,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" ht="21" spans="1:3">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>267</v>
       </c>
@@ -5365,7 +4754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" ht="21" spans="1:3">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>267</v>
       </c>
@@ -5376,7 +4765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" ht="21" spans="1:3">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>267</v>
       </c>
@@ -5387,7 +4776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" ht="21" spans="1:3">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>267</v>
       </c>
@@ -5398,7 +4787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" ht="21" spans="1:3">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>267</v>
       </c>
@@ -5409,7 +4798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" ht="21" spans="1:3">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>267</v>
       </c>
@@ -5420,7 +4809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" ht="21" spans="1:3">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>267</v>
       </c>
@@ -5431,7 +4820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="21" spans="1:3">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>267</v>
       </c>
@@ -5442,7 +4831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" ht="21" spans="1:3">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>267</v>
       </c>
@@ -5453,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" ht="21" spans="1:3">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>267</v>
       </c>
@@ -5464,7 +4853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" ht="21" spans="1:3">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>267</v>
       </c>
@@ -5475,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" ht="21" spans="1:3">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>267</v>
       </c>
@@ -5486,7 +4875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" ht="21" spans="1:3">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>267</v>
       </c>
@@ -5497,7 +4886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" ht="21" spans="1:3">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>267</v>
       </c>
@@ -5508,15 +4897,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" ht="21" spans="2:3">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" ht="21" spans="2:3">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" ht="21" spans="1:3">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>287</v>
       </c>
@@ -5527,7 +4916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" ht="21" spans="1:3">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>287</v>
       </c>
@@ -5538,7 +4927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" ht="21" spans="1:3">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
@@ -5549,7 +4938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" ht="21" spans="1:3">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
@@ -5560,7 +4949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" ht="21" spans="1:3">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
@@ -5571,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" ht="21" spans="1:3">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
@@ -5582,7 +4971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" ht="21" spans="1:3">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>287</v>
       </c>
@@ -5593,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" ht="21" spans="1:3">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>287</v>
       </c>
@@ -5604,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" ht="21" spans="1:3">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>287</v>
       </c>
@@ -5615,7 +5004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" ht="21" spans="1:3">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>287</v>
       </c>
@@ -5626,7 +5015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" ht="21" spans="1:3">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -5637,7 +5026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" ht="21" spans="1:3">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -5648,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" ht="21" spans="1:3">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>287</v>
       </c>
@@ -5659,7 +5048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" ht="21" spans="1:3">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
@@ -5670,7 +5059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" ht="21" spans="1:3">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>287</v>
       </c>
@@ -5681,7 +5070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" ht="21" spans="1:3">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>287</v>
       </c>
@@ -5692,7 +5081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" ht="21" spans="1:3">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>287</v>
       </c>
@@ -5703,7 +5092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" ht="21" spans="1:3">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>287</v>
       </c>
@@ -5714,7 +5103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" ht="21" spans="1:3">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>287</v>
       </c>
@@ -5725,7 +5114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" ht="21" spans="1:3">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>287</v>
       </c>
@@ -5736,7 +5125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" ht="21" spans="1:3">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>287</v>
       </c>
@@ -5747,7 +5136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" ht="21" spans="1:3">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>287</v>
       </c>
@@ -5758,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" ht="21" spans="1:3">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>287</v>
       </c>
@@ -5769,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" ht="21" spans="1:3">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>287</v>
       </c>
@@ -5780,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" ht="21" spans="1:3">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>287</v>
       </c>
@@ -5791,7 +5180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" ht="21" spans="1:3">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>287</v>
       </c>
@@ -5802,7 +5191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" ht="21" spans="1:3">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>287</v>
       </c>
@@ -5813,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" ht="21" spans="1:3">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>287</v>
       </c>
@@ -5824,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" ht="21" spans="1:3">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>287</v>
       </c>
@@ -5835,7 +5224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" ht="21" spans="1:3">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>287</v>
       </c>
@@ -5846,7 +5235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" ht="21" spans="1:3">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>287</v>
       </c>
@@ -5857,7 +5246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" ht="21" spans="1:3">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>287</v>
       </c>
@@ -5868,7 +5257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" ht="21" spans="1:3">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>287</v>
       </c>
@@ -5879,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" ht="21" spans="1:3">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>287</v>
       </c>
@@ -5890,7 +5279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" ht="21" spans="1:3">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>287</v>
       </c>
@@ -5901,7 +5290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" ht="21" spans="1:3">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>287</v>
       </c>
@@ -5912,7 +5301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" ht="21" spans="1:3">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>287</v>
       </c>
@@ -5923,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" ht="21" spans="1:3">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>287</v>
       </c>
@@ -5934,15 +5323,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" ht="21" spans="2:3">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" ht="21" spans="2:3">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" ht="21" spans="1:3">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="9" t="s">
         <v>326</v>
       </c>
@@ -5953,7 +5342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" ht="21" spans="1:3">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="9" t="s">
         <v>326</v>
       </c>
@@ -5964,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" ht="21" spans="1:3">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="9" t="s">
         <v>326</v>
       </c>
@@ -5975,7 +5364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" ht="21" spans="1:3">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="9" t="s">
         <v>326</v>
       </c>
@@ -5986,7 +5375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" ht="21" spans="1:3">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="9" t="s">
         <v>326</v>
       </c>
@@ -5997,7 +5386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" ht="21" spans="1:3">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="9" t="s">
         <v>326</v>
       </c>
@@ -6008,7 +5397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" ht="21" spans="1:3">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="9" t="s">
         <v>326</v>
       </c>
@@ -6019,7 +5408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" ht="21" spans="1:3">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="9" t="s">
         <v>326</v>
       </c>
@@ -6030,7 +5419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" ht="21" spans="1:3">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="9" t="s">
         <v>326</v>
       </c>
@@ -6041,7 +5430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" ht="21" spans="1:3">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="9" t="s">
         <v>326</v>
       </c>
@@ -6052,7 +5441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" ht="21" spans="1:3">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="9" t="s">
         <v>326</v>
       </c>
@@ -6063,7 +5452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" ht="21" spans="1:3">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="9" t="s">
         <v>326</v>
       </c>
@@ -6074,7 +5463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" ht="21" spans="1:3">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="9" t="s">
         <v>326</v>
       </c>
@@ -6085,7 +5474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" ht="21" spans="1:3">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="9" t="s">
         <v>326</v>
       </c>
@@ -6096,7 +5485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" ht="21" spans="1:3">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="9" t="s">
         <v>326</v>
       </c>
@@ -6107,7 +5496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" ht="21" spans="1:3">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="9" t="s">
         <v>326</v>
       </c>
@@ -6118,7 +5507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" ht="21" spans="1:3">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="9" t="s">
         <v>326</v>
       </c>
@@ -6129,7 +5518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="21" spans="1:3">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="9" t="s">
         <v>326</v>
       </c>
@@ -6140,15 +5529,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" ht="21" spans="2:3">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" ht="21" spans="2:3">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" ht="21" spans="1:3">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="9" t="s">
         <v>345</v>
       </c>
@@ -6159,7 +5548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" ht="21" spans="1:3">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="9" t="s">
         <v>345</v>
       </c>
@@ -6170,7 +5559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" ht="21" spans="1:3">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="9" t="s">
         <v>345</v>
       </c>
@@ -6181,7 +5570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="21" spans="1:3">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="9" t="s">
         <v>345</v>
       </c>
@@ -6192,7 +5581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" ht="21" spans="1:3">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="9" t="s">
         <v>345</v>
       </c>
@@ -6203,7 +5592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" ht="21" spans="1:3">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="9" t="s">
         <v>345</v>
       </c>
@@ -6214,7 +5603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" ht="21" spans="1:3">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="9" t="s">
         <v>345</v>
       </c>
@@ -6225,7 +5614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" ht="21" spans="1:3">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="9" t="s">
         <v>345</v>
       </c>
@@ -6236,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" ht="21" spans="1:3">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="9" t="s">
         <v>345</v>
       </c>
@@ -6247,7 +5636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" ht="21" spans="1:3">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="9" t="s">
         <v>345</v>
       </c>
@@ -6258,7 +5647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" ht="21" spans="1:3">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="9" t="s">
         <v>345</v>
       </c>
@@ -6269,7 +5658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" ht="21" spans="1:3">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="9" t="s">
         <v>345</v>
       </c>
@@ -6280,7 +5669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" ht="21" spans="1:3">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="9" t="s">
         <v>345</v>
       </c>
@@ -6291,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" ht="21" spans="1:3">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="9" t="s">
         <v>345</v>
       </c>
@@ -6302,7 +5691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" ht="21" spans="1:3">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="9" t="s">
         <v>345</v>
       </c>
@@ -6313,7 +5702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" ht="21" spans="1:3">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="9" t="s">
         <v>345</v>
       </c>
@@ -6324,7 +5713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" ht="21" spans="1:3">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="9" t="s">
         <v>345</v>
       </c>
@@ -6335,7 +5724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" ht="21" spans="1:3">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="9" t="s">
         <v>345</v>
       </c>
@@ -6346,7 +5735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" ht="21" spans="1:3">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="9" t="s">
         <v>345</v>
       </c>
@@ -6357,7 +5746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" ht="21" spans="1:3">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="9" t="s">
         <v>345</v>
       </c>
@@ -6368,7 +5757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" ht="21" spans="1:3">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="9" t="s">
         <v>345</v>
       </c>
@@ -6379,7 +5768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" ht="21" spans="1:3">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="9" t="s">
         <v>345</v>
       </c>
@@ -6390,7 +5779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" ht="21" spans="1:3">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="9" t="s">
         <v>345</v>
       </c>
@@ -6401,7 +5790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" ht="21" spans="1:3">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="9" t="s">
         <v>345</v>
       </c>
@@ -6412,7 +5801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" ht="21" spans="1:3">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="9" t="s">
         <v>345</v>
       </c>
@@ -6423,7 +5812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" ht="21" spans="1:3">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="9" t="s">
         <v>345</v>
       </c>
@@ -6434,7 +5823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" ht="21" spans="1:3">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="9" t="s">
         <v>345</v>
       </c>
@@ -6445,7 +5834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" ht="21" spans="1:3">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="9" t="s">
         <v>345</v>
       </c>
@@ -6456,7 +5845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" ht="21" spans="1:3">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="9" t="s">
         <v>345</v>
       </c>
@@ -6467,7 +5856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" ht="21" spans="1:3">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="9" t="s">
         <v>345</v>
       </c>
@@ -6478,7 +5867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" ht="21" spans="1:3">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="9" t="s">
         <v>345</v>
       </c>
@@ -6489,7 +5878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" ht="21" spans="1:3">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="9" t="s">
         <v>345</v>
       </c>
@@ -6500,7 +5889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" ht="21" spans="1:3">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="9" t="s">
         <v>345</v>
       </c>
@@ -6511,7 +5900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" ht="21" spans="1:3">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="9" t="s">
         <v>345</v>
       </c>
@@ -6522,7 +5911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="21" spans="1:3">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="9" t="s">
         <v>345</v>
       </c>
@@ -6533,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" ht="21" spans="1:3">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="9" t="s">
         <v>345</v>
       </c>
@@ -6544,7 +5933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" ht="21" spans="1:3">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="9" t="s">
         <v>345</v>
       </c>
@@ -6555,7 +5944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" ht="21" spans="1:3">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="9" t="s">
         <v>345</v>
       </c>
@@ -6566,7 +5955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" ht="21" spans="1:3">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="9" t="s">
         <v>345</v>
       </c>
@@ -6577,7 +5966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" ht="21" spans="1:3">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="9" t="s">
         <v>345</v>
       </c>
@@ -6588,7 +5977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" ht="21" spans="1:3">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="9" t="s">
         <v>345</v>
       </c>
@@ -6599,7 +5988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" ht="21" spans="1:3">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="9" t="s">
         <v>345</v>
       </c>
@@ -6610,7 +5999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" ht="21" spans="1:3">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="9" t="s">
         <v>345</v>
       </c>
@@ -6621,7 +6010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" ht="21" spans="1:3">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="9" t="s">
         <v>345</v>
       </c>
@@ -6632,15 +6021,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" ht="21" spans="2:3">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" ht="21" spans="2:3">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" ht="21" spans="1:3">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="9" t="s">
         <v>389</v>
       </c>
@@ -6651,7 +6040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" ht="21" spans="1:3">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="9" t="s">
         <v>389</v>
       </c>
@@ -6662,7 +6051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" ht="21" spans="1:3">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="9" t="s">
         <v>389</v>
       </c>
@@ -6673,7 +6062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" ht="21" spans="1:3">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="9" t="s">
         <v>389</v>
       </c>
@@ -6684,7 +6073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" ht="21" spans="1:3">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="9" t="s">
         <v>389</v>
       </c>
@@ -6695,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" ht="21" spans="1:3">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="9" t="s">
         <v>389</v>
       </c>
@@ -6706,15 +6095,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" ht="21" spans="2:3">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" ht="21" spans="2:3">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" ht="21" spans="1:3">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>395</v>
       </c>
@@ -6725,7 +6114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" ht="21" spans="1:3">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>395</v>
       </c>
@@ -6736,7 +6125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" ht="21" spans="1:3">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -6747,7 +6136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" ht="21" spans="1:3">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>395</v>
       </c>
@@ -6758,7 +6147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" ht="21" spans="1:3">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>395</v>
       </c>
@@ -6769,7 +6158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" ht="21" spans="1:3">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>395</v>
       </c>
@@ -6780,7 +6169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" ht="21" spans="1:3">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>395</v>
       </c>
@@ -6791,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" ht="21" spans="1:3">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -6802,7 +6191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" ht="21" spans="1:3">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>395</v>
       </c>
@@ -6813,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" ht="21" spans="1:3">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>395</v>
       </c>
@@ -6824,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" ht="21" spans="1:3">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>395</v>
       </c>
@@ -6835,7 +6224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" ht="21" spans="1:3">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>395</v>
       </c>
@@ -6846,7 +6235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" ht="21" spans="1:3">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>395</v>
       </c>
@@ -6857,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" ht="21" spans="1:3">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>395</v>
       </c>
@@ -6868,7 +6257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" ht="21" spans="1:3">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>395</v>
       </c>
@@ -6879,7 +6268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" ht="21" spans="1:3">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>395</v>
       </c>
@@ -6890,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" ht="21" spans="1:3">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>395</v>
       </c>
@@ -6901,7 +6290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" ht="21" spans="1:3">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>395</v>
       </c>
@@ -6912,7 +6301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" ht="21" spans="1:3">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>395</v>
       </c>
@@ -6923,7 +6312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" ht="21" spans="1:3">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>395</v>
       </c>
@@ -6934,7 +6323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" ht="21" spans="1:3">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>395</v>
       </c>
@@ -6945,7 +6334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" ht="21" spans="1:3">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>395</v>
       </c>
@@ -6956,7 +6345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" ht="21" spans="1:3">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>395</v>
       </c>
@@ -6967,7 +6356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" ht="21" spans="1:3">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>395</v>
       </c>
@@ -6978,7 +6367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" ht="21" spans="1:3">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>395</v>
       </c>
@@ -6989,7 +6378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" ht="21" spans="1:3">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>395</v>
       </c>
@@ -7000,7 +6389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" ht="21" spans="1:3">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>395</v>
       </c>
@@ -7011,7 +6400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" ht="21" spans="1:3">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>395</v>
       </c>
@@ -7022,7 +6411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" ht="21" spans="1:3">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>395</v>
       </c>
@@ -7033,7 +6422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" ht="21" spans="1:3">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>395</v>
       </c>
@@ -7044,7 +6433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" ht="21" spans="1:3">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>395</v>
       </c>
@@ -7055,7 +6444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" ht="21" spans="1:3">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>395</v>
       </c>
@@ -7066,7 +6455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" ht="21" spans="1:3">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>395</v>
       </c>
@@ -7077,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" ht="21" spans="1:3">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>395</v>
       </c>
@@ -7088,7 +6477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" ht="21" spans="1:3">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>395</v>
       </c>
@@ -7099,7 +6488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" ht="21" spans="1:3">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>395</v>
       </c>
@@ -7110,7 +6499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" ht="21" spans="1:3">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>395</v>
       </c>
@@ -7121,7 +6510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" ht="21" spans="1:3">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>395</v>
       </c>
@@ -7132,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" ht="21" spans="1:3">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>395</v>
       </c>
@@ -7143,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" ht="21" spans="1:3">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>395</v>
       </c>
@@ -7154,7 +6543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" ht="21" spans="1:3">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>395</v>
       </c>
@@ -7165,7 +6554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" ht="21" spans="1:3">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>395</v>
       </c>
@@ -7176,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" ht="21" spans="1:3">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>395</v>
       </c>
@@ -7187,7 +6576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" ht="21" spans="1:3">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>395</v>
       </c>
@@ -7198,7 +6587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" ht="21" spans="1:3">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>395</v>
       </c>
@@ -7209,7 +6598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" ht="21" spans="1:3">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>395</v>
       </c>
@@ -7220,7 +6609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" ht="21" spans="1:3">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>395</v>
       </c>
@@ -7231,7 +6620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" ht="21" spans="1:3">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>395</v>
       </c>
@@ -7242,7 +6631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" ht="21" spans="1:3">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>395</v>
       </c>
@@ -7253,7 +6642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" ht="21" spans="1:3">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>395</v>
       </c>
@@ -7264,7 +6653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" ht="21" spans="1:3">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>395</v>
       </c>
@@ -7275,7 +6664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" ht="21" spans="1:3">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>395</v>
       </c>
@@ -7286,7 +6675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" ht="21" spans="1:3">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>395</v>
       </c>
@@ -7297,7 +6686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" ht="21" spans="1:3">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>395</v>
       </c>
@@ -7308,7 +6697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" ht="21" spans="1:3">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>395</v>
       </c>
@@ -7319,7 +6708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" ht="21" spans="1:3">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>395</v>
       </c>
@@ -7330,7 +6719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" ht="21" spans="1:3">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>395</v>
       </c>
@@ -7341,7 +6730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" ht="21" spans="1:3">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>395</v>
       </c>
@@ -7352,7 +6741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" ht="21" spans="1:3">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>395</v>
       </c>
@@ -7363,7 +6752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="21" spans="1:3">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>395</v>
       </c>
@@ -7374,16 +6763,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" ht="21" spans="2:3">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" ht="21" spans="1:3">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" ht="21" spans="1:3">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>455</v>
       </c>
@@ -7394,7 +6783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" ht="21" spans="1:3">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>455</v>
       </c>
@@ -7405,7 +6794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" ht="21" spans="1:3">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>455</v>
       </c>
@@ -7416,7 +6805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" ht="21" spans="1:3">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>455</v>
       </c>
@@ -7427,7 +6816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" ht="21" spans="1:3">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>455</v>
       </c>
@@ -7438,7 +6827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" ht="21" spans="1:3">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>455</v>
       </c>
@@ -7449,7 +6838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" ht="21" spans="1:3">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>455</v>
       </c>
@@ -7460,7 +6849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" ht="21" spans="1:3">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
@@ -7471,7 +6860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" ht="21" spans="1:3">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>455</v>
       </c>
@@ -7482,7 +6871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" ht="21" spans="1:3">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>455</v>
       </c>
@@ -7495,454 +6884,453 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B257" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B306" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B379" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B480" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F0EA9-2F6A-4C55-9626-7283F3BE562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C015B-D886-4B32-B78D-B0C6EE98D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2265,7 +2265,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2276,7 +2276,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2342,7 +2342,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\DSA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C015B-D886-4B32-B78D-B0C6EE98D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1423,8 +1417,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1473,6 +1473,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1487,16 +1495,345 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1504,17 +1841,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1525,27 +2101,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1803,36 +2423,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.8">
+    <row r="1" ht="26.25" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" ht="21" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1843,12 +2463,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="3:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" ht="21" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" ht="21" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1870,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" ht="21" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" ht="21" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +2512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" ht="21" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1903,7 +2523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" ht="21" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" ht="21" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +2589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1991,18 +2611,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2057,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2123,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2145,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2200,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2233,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2244,21 +2864,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
-      <c r="B42" s="8"/>
+    <row r="42" ht="21" spans="2:3">
+      <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="9" t="s">
+    <row r="44" ht="21" spans="1:3">
+      <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2268,8 +2888,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="9" t="s">
+    <row r="45" ht="21" spans="1:3">
+      <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2279,8 +2899,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="9" t="s">
+    <row r="46" ht="21" spans="1:3">
+      <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2290,8 +2910,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="9" t="s">
+    <row r="47" ht="21" spans="1:3">
+      <c r="A47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2301,8 +2921,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="9" t="s">
+    <row r="48" ht="21" spans="1:3">
+      <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2312,8 +2932,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="9" t="s">
+    <row r="49" ht="21" spans="1:3">
+      <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2323,8 +2943,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="9" t="s">
+    <row r="50" ht="21" spans="1:3">
+      <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -2334,8 +2954,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="9" t="s">
+    <row r="51" ht="21" spans="1:3">
+      <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2345,8 +2965,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
-      <c r="A52" s="9" t="s">
+    <row r="52" ht="21" spans="1:3">
+      <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2356,8 +2976,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="9" t="s">
+    <row r="53" ht="21" spans="1:3">
+      <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2367,12 +2987,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2383,7 +3003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -2394,7 +3014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
@@ -2405,18 +3025,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -2427,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
@@ -2438,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -2449,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
@@ -2471,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -2482,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -2493,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
@@ -2504,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
@@ -2515,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>55</v>
       </c>
@@ -2526,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
@@ -2537,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>55</v>
       </c>
@@ -2548,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -2559,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>55</v>
       </c>
@@ -2570,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>55</v>
       </c>
@@ -2581,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>55</v>
       </c>
@@ -2592,7 +3212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
@@ -2603,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>55</v>
       </c>
@@ -2614,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>55</v>
       </c>
@@ -2625,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
@@ -2636,7 +3256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
@@ -2647,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>55</v>
       </c>
@@ -2658,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>55</v>
       </c>
@@ -2669,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>55</v>
       </c>
@@ -2680,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>55</v>
       </c>
@@ -2691,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>55</v>
       </c>
@@ -2702,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>55</v>
       </c>
@@ -2713,7 +3333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>55</v>
       </c>
@@ -2724,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>55</v>
       </c>
@@ -2735,7 +3355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -2746,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -2757,7 +3377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -2768,7 +3388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>55</v>
       </c>
@@ -2779,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>55</v>
       </c>
@@ -2790,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>55</v>
       </c>
@@ -2801,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>55</v>
       </c>
@@ -2812,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>55</v>
       </c>
@@ -2823,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>55</v>
       </c>
@@ -2834,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>55</v>
       </c>
@@ -2845,12 +3465,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
+    <row r="100" ht="21" spans="1:3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -2861,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -2872,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
@@ -2883,7 +3503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
@@ -2894,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
@@ -2905,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
@@ -2916,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -2927,7 +3547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -2938,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
@@ -2949,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
@@ -2960,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
@@ -2971,7 +3591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
@@ -2982,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
@@ -2993,7 +3613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
@@ -3004,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
@@ -3015,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
@@ -3026,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
@@ -3037,7 +3657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
@@ -3048,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
@@ -3059,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
@@ -3070,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
@@ -3081,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
@@ -3092,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
@@ -3103,7 +3723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
@@ -3114,7 +3734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
@@ -3125,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
@@ -3136,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3147,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
@@ -3158,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
@@ -3169,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
@@ -3180,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
@@ -3191,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
@@ -3202,7 +3822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
@@ -3213,7 +3833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
@@ -3224,7 +3844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -3235,7 +3855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
@@ -3246,12 +3866,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="8"/>
+    <row r="138" ht="21" spans="2:3">
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="9" t="s">
+    <row r="139" ht="21" spans="1:3">
+      <c r="A139" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -3261,8 +3881,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="9" t="s">
+    <row r="140" ht="21" spans="1:3">
+      <c r="A140" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -3272,8 +3892,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="9" t="s">
+    <row r="141" ht="21" spans="1:3">
+      <c r="A141" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -3283,8 +3903,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
-      <c r="A142" s="9" t="s">
+    <row r="142" ht="21" spans="1:3">
+      <c r="A142" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -3294,8 +3914,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
-      <c r="A143" s="9" t="s">
+    <row r="143" ht="21" spans="1:3">
+      <c r="A143" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -3305,8 +3925,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
-      <c r="A144" s="9" t="s">
+    <row r="144" ht="21" spans="1:3">
+      <c r="A144" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -3316,8 +3936,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
-      <c r="A145" s="9" t="s">
+    <row r="145" ht="21" spans="1:3">
+      <c r="A145" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -3327,8 +3947,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
-      <c r="A146" s="9" t="s">
+    <row r="146" ht="21" spans="1:3">
+      <c r="A146" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -3338,8 +3958,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
-      <c r="A147" s="9" t="s">
+    <row r="147" ht="21" spans="1:3">
+      <c r="A147" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -3349,8 +3969,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
-      <c r="A148" s="9" t="s">
+    <row r="148" ht="21" spans="1:3">
+      <c r="A148" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -3360,8 +3980,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
-      <c r="A149" s="9" t="s">
+    <row r="149" ht="21" spans="1:3">
+      <c r="A149" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B149" s="7" t="s">
@@ -3371,8 +3991,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
-      <c r="A150" s="9" t="s">
+    <row r="150" ht="21" spans="1:3">
+      <c r="A150" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B150" s="7" t="s">
@@ -3382,8 +4002,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
-      <c r="A151" s="9" t="s">
+    <row r="151" ht="21" spans="1:3">
+      <c r="A151" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B151" s="7" t="s">
@@ -3393,8 +4013,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
-      <c r="A152" s="9" t="s">
+    <row r="152" ht="21" spans="1:3">
+      <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -3404,8 +4024,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
-      <c r="A153" s="9" t="s">
+    <row r="153" ht="21" spans="1:3">
+      <c r="A153" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B153" s="7" t="s">
@@ -3415,8 +4035,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
-      <c r="A154" s="9" t="s">
+    <row r="154" ht="21" spans="1:3">
+      <c r="A154" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -3426,8 +4046,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
-      <c r="A155" s="9" t="s">
+    <row r="155" ht="21" spans="1:3">
+      <c r="A155" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="7" t="s">
@@ -3437,8 +4057,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
-      <c r="A156" s="9" t="s">
+    <row r="156" ht="21" spans="1:3">
+      <c r="A156" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -3448,8 +4068,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
-      <c r="A157" s="9" t="s">
+    <row r="157" ht="21" spans="1:3">
+      <c r="A157" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B157" s="7" t="s">
@@ -3459,8 +4079,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
-      <c r="A158" s="9" t="s">
+    <row r="158" ht="21" spans="1:3">
+      <c r="A158" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -3470,8 +4090,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
-      <c r="A159" s="9" t="s">
+    <row r="159" ht="21" spans="1:3">
+      <c r="A159" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -3481,8 +4101,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
-      <c r="A160" s="9" t="s">
+    <row r="160" ht="21" spans="1:3">
+      <c r="A160" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -3492,8 +4112,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
-      <c r="A161" s="9" t="s">
+    <row r="161" ht="21" spans="1:3">
+      <c r="A161" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -3503,8 +4123,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
-      <c r="A162" s="9" t="s">
+    <row r="162" ht="21" spans="1:3">
+      <c r="A162" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -3514,8 +4134,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
-      <c r="A163" s="9" t="s">
+    <row r="163" ht="21" spans="1:3">
+      <c r="A163" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -3525,30 +4145,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
-      <c r="A164" s="9" t="s">
+    <row r="164" ht="21" spans="1:3">
+      <c r="A164" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
-      <c r="A165" s="9" t="s">
+    <row r="165" ht="21" spans="1:3">
+      <c r="A165" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
-      <c r="A166" s="9" t="s">
+    <row r="166" ht="21" spans="1:3">
+      <c r="A166" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -3558,8 +4178,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
-      <c r="A167" s="9" t="s">
+    <row r="167" ht="21" spans="1:3">
+      <c r="A167" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="7" t="s">
@@ -3569,8 +4189,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
-      <c r="A168" s="9" t="s">
+    <row r="168" ht="21" spans="1:3">
+      <c r="A168" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B168" s="7" t="s">
@@ -3580,8 +4200,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
-      <c r="A169" s="9" t="s">
+    <row r="169" ht="21" spans="1:3">
+      <c r="A169" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B169" s="7" t="s">
@@ -3591,8 +4211,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
-      <c r="A170" s="9" t="s">
+    <row r="170" ht="21" spans="1:3">
+      <c r="A170" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -3602,8 +4222,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
-      <c r="A171" s="9" t="s">
+    <row r="171" ht="21" spans="1:3">
+      <c r="A171" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -3613,8 +4233,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
-      <c r="A172" s="9" t="s">
+    <row r="172" ht="21" spans="1:3">
+      <c r="A172" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -3624,8 +4244,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
-      <c r="A173" s="9" t="s">
+    <row r="173" ht="21" spans="1:3">
+      <c r="A173" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B173" s="7" t="s">
@@ -3635,8 +4255,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="9" t="s">
+    <row r="174" ht="21" spans="1:3">
+      <c r="A174" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -3646,11 +4266,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
-      <c r="B176" s="8"/>
+    <row r="176" ht="21" spans="2:3">
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
@@ -3661,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
@@ -3672,7 +4292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
@@ -3683,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
@@ -3694,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
@@ -3705,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
@@ -3716,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
@@ -3727,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
@@ -3738,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
@@ -3749,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
@@ -3760,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
@@ -3771,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
@@ -3782,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
@@ -3793,7 +4413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
@@ -3804,7 +4424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
@@ -3815,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
@@ -3826,7 +4446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
@@ -3837,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
@@ -3848,7 +4468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
@@ -3859,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
@@ -3870,7 +4490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
@@ -3881,7 +4501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
@@ -3892,7 +4512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
@@ -3903,7 +4523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
@@ -3914,7 +4534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
@@ -3925,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
@@ -3936,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
@@ -3947,7 +4567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
@@ -3958,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
@@ -3969,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
@@ -3980,7 +4600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
@@ -3991,7 +4611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
@@ -4002,7 +4622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
@@ -4013,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
@@ -4024,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
@@ -4035,17 +4655,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="9"/>
-      <c r="B212" s="8"/>
+    <row r="212" ht="21" spans="1:3">
+      <c r="A212" s="10"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="9"/>
-      <c r="B213" s="8"/>
+    <row r="213" ht="21" spans="1:3">
+      <c r="A213" s="10"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
@@ -4056,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
@@ -4067,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
@@ -4078,7 +4698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
@@ -4089,7 +4709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
@@ -4100,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
@@ -4111,18 +4731,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
@@ -4133,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
@@ -4144,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
@@ -4155,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
@@ -4166,7 +4786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
@@ -4177,7 +4797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
@@ -4188,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
@@ -4199,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
@@ -4210,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
@@ -4221,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
@@ -4232,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
@@ -4243,7 +4863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
         <v>209</v>
       </c>
@@ -4254,7 +4874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
         <v>209</v>
       </c>
@@ -4265,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -4276,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
@@ -4287,15 +4907,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="B236" s="8"/>
+    <row r="236" ht="21" spans="2:3">
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
-      <c r="B237" s="8"/>
+    <row r="237" ht="21" spans="2:3">
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
         <v>232</v>
       </c>
@@ -4306,7 +4926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
         <v>232</v>
       </c>
@@ -4317,7 +4937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
         <v>232</v>
       </c>
@@ -4328,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
         <v>232</v>
       </c>
@@ -4339,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
         <v>232</v>
       </c>
@@ -4350,7 +4970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
         <v>232</v>
       </c>
@@ -4361,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
         <v>232</v>
       </c>
@@ -4372,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
         <v>232</v>
       </c>
@@ -4383,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
         <v>232</v>
       </c>
@@ -4394,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
         <v>232</v>
       </c>
@@ -4405,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
         <v>232</v>
       </c>
@@ -4416,7 +5036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
         <v>232</v>
       </c>
@@ -4427,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
         <v>232</v>
       </c>
@@ -4438,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
         <v>232</v>
       </c>
@@ -4449,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
         <v>232</v>
       </c>
@@ -4460,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
         <v>232</v>
       </c>
@@ -4471,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
         <v>232</v>
       </c>
@@ -4482,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
         <v>232</v>
       </c>
@@ -4493,7 +5113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
         <v>232</v>
       </c>
@@ -4504,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -4515,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
         <v>232</v>
       </c>
@@ -4526,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
         <v>232</v>
       </c>
@@ -4537,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
         <v>232</v>
       </c>
@@ -4548,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
         <v>232</v>
       </c>
@@ -4559,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
         <v>232</v>
       </c>
@@ -4570,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
         <v>232</v>
       </c>
@@ -4581,7 +5201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
         <v>232</v>
       </c>
@@ -4592,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
         <v>232</v>
       </c>
@@ -4603,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
         <v>232</v>
       </c>
@@ -4614,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
         <v>232</v>
       </c>
@@ -4625,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
         <v>232</v>
       </c>
@@ -4636,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
         <v>232</v>
       </c>
@@ -4647,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
         <v>232</v>
       </c>
@@ -4658,7 +5278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
         <v>232</v>
       </c>
@@ -4669,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
         <v>232</v>
       </c>
@@ -4680,15 +5300,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
-      <c r="B273" s="8"/>
+    <row r="273" ht="21" spans="2:3">
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="8"/>
+    <row r="274" ht="21" spans="2:3">
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
         <v>267</v>
       </c>
@@ -4699,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
         <v>267</v>
       </c>
@@ -4710,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
         <v>267</v>
       </c>
@@ -4721,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
         <v>267</v>
       </c>
@@ -4732,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
         <v>267</v>
       </c>
@@ -4743,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
         <v>267</v>
       </c>
@@ -4754,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
         <v>267</v>
       </c>
@@ -4765,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
         <v>267</v>
       </c>
@@ -4776,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
         <v>267</v>
       </c>
@@ -4787,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
         <v>267</v>
       </c>
@@ -4798,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
         <v>267</v>
       </c>
@@ -4809,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
         <v>267</v>
       </c>
@@ -4820,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
         <v>267</v>
       </c>
@@ -4831,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
         <v>267</v>
       </c>
@@ -4842,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
         <v>267</v>
       </c>
@@ -4853,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
         <v>267</v>
       </c>
@@ -4864,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
         <v>267</v>
       </c>
@@ -4875,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
         <v>267</v>
       </c>
@@ -4886,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
         <v>267</v>
       </c>
@@ -4897,15 +5517,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="8"/>
+    <row r="294" ht="21" spans="2:3">
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="8"/>
+    <row r="295" ht="21" spans="2:3">
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
         <v>287</v>
       </c>
@@ -4916,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
         <v>287</v>
       </c>
@@ -4927,7 +5547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
@@ -4938,7 +5558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
@@ -4949,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
@@ -4960,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
@@ -4971,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
         <v>287</v>
       </c>
@@ -4982,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
         <v>287</v>
       </c>
@@ -4993,7 +5613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
         <v>287</v>
       </c>
@@ -5004,7 +5624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
         <v>287</v>
       </c>
@@ -5015,7 +5635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -5026,7 +5646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -5037,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
         <v>287</v>
       </c>
@@ -5048,18 +5668,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
         <v>287</v>
       </c>
@@ -5070,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
         <v>287</v>
       </c>
@@ -5081,7 +5701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
         <v>287</v>
       </c>
@@ -5092,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
         <v>287</v>
       </c>
@@ -5103,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
         <v>287</v>
       </c>
@@ -5114,7 +5734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
         <v>287</v>
       </c>
@@ -5125,7 +5745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
         <v>287</v>
       </c>
@@ -5136,7 +5756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
         <v>287</v>
       </c>
@@ -5147,7 +5767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
         <v>287</v>
       </c>
@@ -5158,7 +5778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
         <v>287</v>
       </c>
@@ -5169,7 +5789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
         <v>287</v>
       </c>
@@ -5180,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
         <v>287</v>
       </c>
@@ -5191,7 +5811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
         <v>287</v>
       </c>
@@ -5202,7 +5822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
         <v>287</v>
       </c>
@@ -5213,7 +5833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
         <v>287</v>
       </c>
@@ -5224,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
         <v>287</v>
       </c>
@@ -5235,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
         <v>287</v>
       </c>
@@ -5246,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
         <v>287</v>
       </c>
@@ -5257,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
         <v>287</v>
       </c>
@@ -5268,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
         <v>287</v>
       </c>
@@ -5279,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
         <v>287</v>
       </c>
@@ -5290,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
         <v>287</v>
       </c>
@@ -5301,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
         <v>287</v>
       </c>
@@ -5312,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
         <v>287</v>
       </c>
@@ -5323,16 +5943,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="8"/>
+    <row r="334" ht="21" spans="2:3">
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="8"/>
+    <row r="335" ht="21" spans="2:3">
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="9" t="s">
+    <row r="336" ht="21" spans="1:3">
+      <c r="A336" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B336" s="7" t="s">
@@ -5342,8 +5962,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
-      <c r="A337" s="9" t="s">
+    <row r="337" ht="21" spans="1:3">
+      <c r="A337" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B337" s="7" t="s">
@@ -5353,8 +5973,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
-      <c r="A338" s="9" t="s">
+    <row r="338" ht="21" spans="1:3">
+      <c r="A338" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B338" s="7" t="s">
@@ -5364,8 +5984,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
-      <c r="A339" s="9" t="s">
+    <row r="339" ht="21" spans="1:3">
+      <c r="A339" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B339" s="7" t="s">
@@ -5375,8 +5995,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
-      <c r="A340" s="9" t="s">
+    <row r="340" ht="21" spans="1:3">
+      <c r="A340" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B340" s="7" t="s">
@@ -5386,8 +6006,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
-      <c r="A341" s="9" t="s">
+    <row r="341" ht="21" spans="1:3">
+      <c r="A341" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B341" s="7" t="s">
@@ -5397,8 +6017,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
-      <c r="A342" s="9" t="s">
+    <row r="342" ht="21" spans="1:3">
+      <c r="A342" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B342" s="7" t="s">
@@ -5408,8 +6028,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
-      <c r="A343" s="9" t="s">
+    <row r="343" ht="21" spans="1:3">
+      <c r="A343" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B343" s="7" t="s">
@@ -5419,19 +6039,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
-      <c r="A344" s="9" t="s">
+    <row r="344" ht="21" spans="1:3">
+      <c r="A344" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
-      <c r="A345" s="9" t="s">
+    <row r="345" ht="21" spans="1:3">
+      <c r="A345" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B345" s="7" t="s">
@@ -5441,8 +6061,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
-      <c r="A346" s="9" t="s">
+    <row r="346" ht="21" spans="1:3">
+      <c r="A346" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B346" s="7" t="s">
@@ -5452,8 +6072,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
-      <c r="A347" s="9" t="s">
+    <row r="347" ht="21" spans="1:3">
+      <c r="A347" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B347" s="7" t="s">
@@ -5463,8 +6083,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
-      <c r="A348" s="9" t="s">
+    <row r="348" ht="21" spans="1:3">
+      <c r="A348" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B348" s="7" t="s">
@@ -5474,8 +6094,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
-      <c r="A349" s="9" t="s">
+    <row r="349" ht="21" spans="1:3">
+      <c r="A349" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B349" s="7" t="s">
@@ -5485,8 +6105,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
-      <c r="A350" s="9" t="s">
+    <row r="350" ht="21" spans="1:3">
+      <c r="A350" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B350" s="7" t="s">
@@ -5496,8 +6116,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
-      <c r="A351" s="9" t="s">
+    <row r="351" ht="21" spans="1:3">
+      <c r="A351" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B351" s="7" t="s">
@@ -5507,8 +6127,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
-      <c r="A352" s="9" t="s">
+    <row r="352" ht="21" spans="1:3">
+      <c r="A352" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B352" s="7" t="s">
@@ -5518,8 +6138,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
-      <c r="A353" s="9" t="s">
+    <row r="353" ht="21" spans="1:3">
+      <c r="A353" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B353" s="7" t="s">
@@ -5529,16 +6149,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="8"/>
+    <row r="354" ht="21" spans="2:3">
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="8"/>
+    <row r="355" ht="21" spans="2:3">
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="9" t="s">
+    <row r="356" ht="21" spans="1:3">
+      <c r="A356" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B356" s="7" t="s">
@@ -5548,8 +6168,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="9" t="s">
+    <row r="357" ht="21" spans="1:3">
+      <c r="A357" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B357" s="7" t="s">
@@ -5559,8 +6179,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
-      <c r="A358" s="9" t="s">
+    <row r="358" ht="21" spans="1:3">
+      <c r="A358" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B358" s="7" t="s">
@@ -5570,8 +6190,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
-      <c r="A359" s="9" t="s">
+    <row r="359" ht="21" spans="1:3">
+      <c r="A359" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B359" s="7" t="s">
@@ -5581,8 +6201,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
-      <c r="A360" s="9" t="s">
+    <row r="360" ht="21" spans="1:3">
+      <c r="A360" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B360" s="7" t="s">
@@ -5592,8 +6212,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="9" t="s">
+    <row r="361" ht="21" spans="1:3">
+      <c r="A361" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B361" s="7" t="s">
@@ -5603,8 +6223,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
-      <c r="A362" s="9" t="s">
+    <row r="362" ht="21" spans="1:3">
+      <c r="A362" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B362" s="7" t="s">
@@ -5614,8 +6234,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
-      <c r="A363" s="9" t="s">
+    <row r="363" ht="21" spans="1:3">
+      <c r="A363" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B363" s="7" t="s">
@@ -5625,8 +6245,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
-      <c r="A364" s="9" t="s">
+    <row r="364" ht="21" spans="1:3">
+      <c r="A364" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B364" s="7" t="s">
@@ -5636,8 +6256,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
-      <c r="A365" s="9" t="s">
+    <row r="365" ht="21" spans="1:3">
+      <c r="A365" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B365" s="7" t="s">
@@ -5647,8 +6267,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
-      <c r="A366" s="9" t="s">
+    <row r="366" ht="21" spans="1:3">
+      <c r="A366" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B366" s="7" t="s">
@@ -5658,8 +6278,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="9" t="s">
+    <row r="367" ht="21" spans="1:3">
+      <c r="A367" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B367" s="7" t="s">
@@ -5669,8 +6289,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
-      <c r="A368" s="9" t="s">
+    <row r="368" ht="21" spans="1:3">
+      <c r="A368" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B368" s="7" t="s">
@@ -5680,8 +6300,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="9" t="s">
+    <row r="369" ht="21" spans="1:3">
+      <c r="A369" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B369" s="7" t="s">
@@ -5691,8 +6311,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
-      <c r="A370" s="9" t="s">
+    <row r="370" ht="21" spans="1:3">
+      <c r="A370" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B370" s="7" t="s">
@@ -5702,8 +6322,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
-      <c r="A371" s="9" t="s">
+    <row r="371" ht="21" spans="1:3">
+      <c r="A371" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B371" s="7" t="s">
@@ -5713,8 +6333,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
-      <c r="A372" s="9" t="s">
+    <row r="372" ht="21" spans="1:3">
+      <c r="A372" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B372" s="7" t="s">
@@ -5724,8 +6344,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
-      <c r="A373" s="9" t="s">
+    <row r="373" ht="21" spans="1:3">
+      <c r="A373" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B373" s="7" t="s">
@@ -5735,8 +6355,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
-      <c r="A374" s="9" t="s">
+    <row r="374" ht="21" spans="1:3">
+      <c r="A374" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B374" s="7" t="s">
@@ -5746,8 +6366,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
-      <c r="A375" s="9" t="s">
+    <row r="375" ht="21" spans="1:3">
+      <c r="A375" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B375" s="7" t="s">
@@ -5757,8 +6377,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
-      <c r="A376" s="9" t="s">
+    <row r="376" ht="21" spans="1:3">
+      <c r="A376" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B376" s="7" t="s">
@@ -5768,8 +6388,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
-      <c r="A377" s="9" t="s">
+    <row r="377" ht="21" spans="1:3">
+      <c r="A377" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B377" s="7" t="s">
@@ -5779,8 +6399,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
-      <c r="A378" s="9" t="s">
+    <row r="378" ht="21" spans="1:3">
+      <c r="A378" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B378" s="7" t="s">
@@ -5790,8 +6410,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
-      <c r="A379" s="9" t="s">
+    <row r="379" ht="21" spans="1:3">
+      <c r="A379" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B379" s="7" t="s">
@@ -5801,8 +6421,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
-      <c r="A380" s="9" t="s">
+    <row r="380" ht="21" spans="1:3">
+      <c r="A380" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B380" s="7" t="s">
@@ -5812,8 +6432,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
-      <c r="A381" s="9" t="s">
+    <row r="381" ht="21" spans="1:3">
+      <c r="A381" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B381" s="7" t="s">
@@ -5823,8 +6443,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
-      <c r="A382" s="9" t="s">
+    <row r="382" ht="21" spans="1:3">
+      <c r="A382" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B382" s="7" t="s">
@@ -5834,8 +6454,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
-      <c r="A383" s="9" t="s">
+    <row r="383" ht="21" spans="1:3">
+      <c r="A383" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B383" s="7" t="s">
@@ -5845,8 +6465,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
-      <c r="A384" s="9" t="s">
+    <row r="384" ht="21" spans="1:3">
+      <c r="A384" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B384" s="7" t="s">
@@ -5856,8 +6476,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
-      <c r="A385" s="9" t="s">
+    <row r="385" ht="21" spans="1:3">
+      <c r="A385" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B385" s="7" t="s">
@@ -5867,8 +6487,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
-      <c r="A386" s="9" t="s">
+    <row r="386" ht="21" spans="1:3">
+      <c r="A386" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B386" s="7" t="s">
@@ -5878,8 +6498,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
-      <c r="A387" s="9" t="s">
+    <row r="387" ht="21" spans="1:3">
+      <c r="A387" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B387" s="7" t="s">
@@ -5889,8 +6509,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
-      <c r="A388" s="9" t="s">
+    <row r="388" ht="21" spans="1:3">
+      <c r="A388" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B388" s="7" t="s">
@@ -5900,8 +6520,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
-      <c r="A389" s="9" t="s">
+    <row r="389" ht="21" spans="1:3">
+      <c r="A389" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B389" s="7" t="s">
@@ -5911,8 +6531,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
-      <c r="A390" s="9" t="s">
+    <row r="390" ht="21" spans="1:3">
+      <c r="A390" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B390" s="7" t="s">
@@ -5922,8 +6542,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
-      <c r="A391" s="9" t="s">
+    <row r="391" ht="21" spans="1:3">
+      <c r="A391" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B391" s="7" t="s">
@@ -5933,8 +6553,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
-      <c r="A392" s="9" t="s">
+    <row r="392" ht="21" spans="1:3">
+      <c r="A392" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B392" s="7" t="s">
@@ -5944,8 +6564,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="9" t="s">
+    <row r="393" ht="21" spans="1:3">
+      <c r="A393" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B393" s="7" t="s">
@@ -5955,8 +6575,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
-      <c r="A394" s="9" t="s">
+    <row r="394" ht="21" spans="1:3">
+      <c r="A394" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B394" s="7" t="s">
@@ -5966,8 +6586,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
-      <c r="A395" s="9" t="s">
+    <row r="395" ht="21" spans="1:3">
+      <c r="A395" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B395" s="7" t="s">
@@ -5977,8 +6597,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
-      <c r="A396" s="9" t="s">
+    <row r="396" ht="21" spans="1:3">
+      <c r="A396" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B396" s="7" t="s">
@@ -5988,8 +6608,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
-      <c r="A397" s="9" t="s">
+    <row r="397" ht="21" spans="1:3">
+      <c r="A397" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B397" s="7" t="s">
@@ -5999,8 +6619,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
-      <c r="A398" s="9" t="s">
+    <row r="398" ht="21" spans="1:3">
+      <c r="A398" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B398" s="7" t="s">
@@ -6010,8 +6630,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="9" t="s">
+    <row r="399" ht="21" spans="1:3">
+      <c r="A399" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B399" s="7" t="s">
@@ -6021,16 +6641,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="8"/>
+    <row r="400" ht="21" spans="2:3">
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="8"/>
+    <row r="401" ht="21" spans="2:3">
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="9" t="s">
+    <row r="402" ht="21" spans="1:3">
+      <c r="A402" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B402" s="7" t="s">
@@ -6040,8 +6660,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="9" t="s">
+    <row r="403" ht="21" spans="1:3">
+      <c r="A403" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B403" s="7" t="s">
@@ -6051,8 +6671,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
-      <c r="A404" s="9" t="s">
+    <row r="404" ht="21" spans="1:3">
+      <c r="A404" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B404" s="7" t="s">
@@ -6062,8 +6682,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
-      <c r="A405" s="9" t="s">
+    <row r="405" ht="21" spans="1:3">
+      <c r="A405" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B405" s="7" t="s">
@@ -6073,8 +6693,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
-      <c r="A406" s="9" t="s">
+    <row r="406" ht="21" spans="1:3">
+      <c r="A406" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B406" s="7" t="s">
@@ -6084,8 +6704,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="9" t="s">
+    <row r="407" ht="21" spans="1:3">
+      <c r="A407" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B407" s="7" t="s">
@@ -6095,15 +6715,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="8"/>
+    <row r="408" ht="21" spans="2:3">
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="8"/>
+    <row r="409" ht="21" spans="2:3">
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
         <v>395</v>
       </c>
@@ -6114,7 +6734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
         <v>395</v>
       </c>
@@ -6125,7 +6745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -6136,7 +6756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
         <v>395</v>
       </c>
@@ -6147,7 +6767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
         <v>395</v>
       </c>
@@ -6158,7 +6778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
         <v>395</v>
       </c>
@@ -6169,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
         <v>395</v>
       </c>
@@ -6180,7 +6800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -6191,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
         <v>395</v>
       </c>
@@ -6202,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
         <v>395</v>
       </c>
@@ -6213,7 +6833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
         <v>395</v>
       </c>
@@ -6224,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
         <v>395</v>
       </c>
@@ -6235,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
         <v>395</v>
       </c>
@@ -6246,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
         <v>395</v>
       </c>
@@ -6257,7 +6877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
         <v>395</v>
       </c>
@@ -6268,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
         <v>395</v>
       </c>
@@ -6279,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
         <v>395</v>
       </c>
@@ -6290,7 +6910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
         <v>395</v>
       </c>
@@ -6301,7 +6921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
         <v>395</v>
       </c>
@@ -6312,7 +6932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
         <v>395</v>
       </c>
@@ -6323,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
         <v>395</v>
       </c>
@@ -6334,7 +6954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
         <v>395</v>
       </c>
@@ -6345,7 +6965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
         <v>395</v>
       </c>
@@ -6356,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
         <v>395</v>
       </c>
@@ -6367,7 +6987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
         <v>395</v>
       </c>
@@ -6378,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
         <v>395</v>
       </c>
@@ -6389,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
         <v>395</v>
       </c>
@@ -6400,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
         <v>395</v>
       </c>
@@ -6411,7 +7031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
         <v>395</v>
       </c>
@@ -6422,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
         <v>395</v>
       </c>
@@ -6433,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
         <v>395</v>
       </c>
@@ -6444,7 +7064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
         <v>395</v>
       </c>
@@ -6455,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
         <v>395</v>
       </c>
@@ -6466,7 +7086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
         <v>395</v>
       </c>
@@ -6477,7 +7097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
         <v>395</v>
       </c>
@@ -6488,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
         <v>395</v>
       </c>
@@ -6499,7 +7119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
         <v>395</v>
       </c>
@@ -6510,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
         <v>395</v>
       </c>
@@ -6521,7 +7141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
         <v>395</v>
       </c>
@@ -6532,7 +7152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
         <v>395</v>
       </c>
@@ -6543,7 +7163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
         <v>395</v>
       </c>
@@ -6554,7 +7174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
         <v>395</v>
       </c>
@@ -6565,7 +7185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
         <v>395</v>
       </c>
@@ -6576,7 +7196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
         <v>395</v>
       </c>
@@ -6587,7 +7207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
         <v>395</v>
       </c>
@@ -6598,7 +7218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
         <v>395</v>
       </c>
@@ -6609,7 +7229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
         <v>395</v>
       </c>
@@ -6620,7 +7240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
         <v>395</v>
       </c>
@@ -6631,7 +7251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
         <v>395</v>
       </c>
@@ -6642,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
         <v>395</v>
       </c>
@@ -6653,7 +7273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
         <v>395</v>
       </c>
@@ -6664,7 +7284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
         <v>395</v>
       </c>
@@ -6675,7 +7295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
         <v>395</v>
       </c>
@@ -6686,7 +7306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
         <v>395</v>
       </c>
@@ -6697,7 +7317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
         <v>395</v>
       </c>
@@ -6708,7 +7328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
         <v>395</v>
       </c>
@@ -6719,7 +7339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
         <v>395</v>
       </c>
@@ -6730,7 +7350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
         <v>395</v>
       </c>
@@ -6741,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
         <v>395</v>
       </c>
@@ -6752,7 +7372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
         <v>395</v>
       </c>
@@ -6763,16 +7383,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="8"/>
+    <row r="470" ht="21" spans="2:3">
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="9"/>
-      <c r="B471" s="8"/>
+    <row r="471" ht="21" spans="1:3">
+      <c r="A471" s="10"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
         <v>455</v>
       </c>
@@ -6783,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
         <v>455</v>
       </c>
@@ -6794,7 +7414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
         <v>455</v>
       </c>
@@ -6805,7 +7425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
         <v>455</v>
       </c>
@@ -6816,7 +7436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
         <v>455</v>
       </c>
@@ -6827,7 +7447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
         <v>455</v>
       </c>
@@ -6838,7 +7458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
         <v>455</v>
       </c>
@@ -6849,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
@@ -6860,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
         <v>455</v>
       </c>
@@ -6871,7 +7491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
         <v>455</v>
       </c>
@@ -6884,453 +7504,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B257" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B306" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B379" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B480" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
+    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
+    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
+    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DAABC-6F01-4626-BB76-3B7F49A3BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9045"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1417,14 +1423,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1495,345 +1495,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1841,256 +1512,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,71 +1533,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2423,36 +1812,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="2:2">
+    <row r="1" spans="1:3" ht="25.8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21" spans="1:3">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2463,12 +1852,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:3">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2479,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:3">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +1879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="1:3">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2501,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="21" spans="1:3">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:3">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="1:3">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +1923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:3">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:3">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="21" spans="1:3">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="21" spans="1:3">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:3">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2589,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="21" spans="1:3">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2600,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:3">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" ht="21" spans="1:3">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2622,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="21" spans="1:3">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2630,10 +2019,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2644,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="1:3">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2655,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="21" spans="1:3">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="21" spans="1:3">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="21" spans="1:3">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="21" spans="1:3">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2699,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="21" spans="1:3">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2710,7 +2099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="21" spans="1:3">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="21" spans="1:3">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2732,7 +2121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="21" spans="1:3">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="21" spans="1:3">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2754,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="21" spans="1:3">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2765,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:3">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" ht="21" spans="1:3">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2787,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="21" spans="1:3">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2798,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="21" spans="1:3">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2809,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="21" spans="1:3">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2820,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="21" spans="1:3">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2831,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="21" spans="1:3">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" ht="21" spans="1:3">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2853,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="21" spans="1:3">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2864,20 +2253,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="21" spans="2:3">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="21" spans="1:3">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="21" spans="1:3">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
@@ -2888,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" ht="21" spans="1:3">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" ht="21" spans="1:3">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
@@ -2910,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="21" spans="1:3">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="10" t="s">
         <v>44</v>
       </c>
@@ -2921,7 +2310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="21" spans="1:3">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
@@ -2932,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="21" spans="1:3">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
@@ -2943,7 +2332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="21" spans="1:3">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -2954,7 +2343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="21" spans="1:3">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
@@ -2965,7 +2354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" ht="21" spans="1:3">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -2976,7 +2365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="21" spans="1:3">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -2987,12 +2376,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="21" spans="1:3">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" ht="21" spans="1:3">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -3003,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="21" spans="1:3">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -3014,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="21" spans="1:3">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
@@ -3025,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" ht="21" spans="1:3">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -3036,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="21" spans="1:3">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -3047,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="21" spans="1:3">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
@@ -3058,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="21" spans="1:3">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -3069,7 +2458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="21" spans="1:3">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -3080,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="21" spans="1:3">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
@@ -3091,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" ht="21" spans="1:3">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -3102,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" ht="21" spans="1:3">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -3113,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="21" spans="1:3">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
@@ -3124,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" ht="21" spans="1:3">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
@@ -3135,7 +2524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" ht="21" spans="1:3">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>55</v>
       </c>
@@ -3146,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="21" spans="1:3">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
@@ -3157,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="21" spans="1:3">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>55</v>
       </c>
@@ -3168,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="21" spans="1:3">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -3179,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="21" spans="1:3">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>55</v>
       </c>
@@ -3190,7 +2579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="21" spans="1:3">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>55</v>
       </c>
@@ -3201,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="21" spans="1:3">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>55</v>
       </c>
@@ -3212,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="21" spans="1:3">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
@@ -3223,7 +2612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="21" spans="1:3">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>55</v>
       </c>
@@ -3234,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="21" spans="1:3">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>55</v>
       </c>
@@ -3245,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="21" spans="1:3">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
@@ -3256,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="21" spans="1:3">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
@@ -3267,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="21" spans="1:3">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>55</v>
       </c>
@@ -3278,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="21" spans="1:3">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>55</v>
       </c>
@@ -3289,7 +2678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="21" spans="1:3">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>55</v>
       </c>
@@ -3300,7 +2689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="21" spans="1:3">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>55</v>
       </c>
@@ -3311,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="21" spans="1:3">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>55</v>
       </c>
@@ -3322,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" ht="21" spans="1:3">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>55</v>
       </c>
@@ -3333,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="21" spans="1:3">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>55</v>
       </c>
@@ -3344,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="21" spans="1:3">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>55</v>
       </c>
@@ -3355,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="21" spans="1:3">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -3366,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="21" spans="1:3">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -3377,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="21" spans="1:3">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -3388,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="21" spans="1:3">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>55</v>
       </c>
@@ -3399,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="21" spans="1:3">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>55</v>
       </c>
@@ -3410,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="21" spans="1:3">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>55</v>
       </c>
@@ -3421,7 +2810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="21" spans="1:3">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>55</v>
       </c>
@@ -3432,7 +2821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="21" spans="1:3">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>55</v>
       </c>
@@ -3443,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" ht="21" spans="1:3">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>55</v>
       </c>
@@ -3454,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="21" spans="1:3">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>55</v>
       </c>
@@ -3465,12 +2854,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" ht="21" spans="1:3">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" ht="21" spans="1:3">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -3478,10 +2867,10 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -3492,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" ht="21" spans="1:3">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
@@ -3503,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" ht="21" spans="1:3">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
@@ -3514,7 +2903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" ht="21" spans="1:3">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
@@ -3525,7 +2914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="21" spans="1:3">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
@@ -3536,7 +2925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="21" spans="1:3">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -3547,7 +2936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" ht="21" spans="1:3">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -3558,7 +2947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" ht="21" spans="1:3">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
@@ -3569,7 +2958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" ht="21" spans="1:3">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
@@ -3580,7 +2969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" ht="21" spans="1:3">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
@@ -3591,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" ht="21" spans="1:3">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
@@ -3602,7 +2991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" ht="21" spans="1:3">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
@@ -3613,7 +3002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" ht="21" spans="1:3">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
@@ -3624,7 +3013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="21" spans="1:3">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
@@ -3635,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" ht="21" spans="1:3">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
@@ -3646,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" ht="21" spans="1:3">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
@@ -3657,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="21" spans="1:3">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
@@ -3668,7 +3057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" ht="21" spans="1:3">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
@@ -3679,7 +3068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="21" spans="1:3">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
@@ -3690,7 +3079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="21" spans="1:3">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
@@ -3701,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" ht="21" spans="1:3">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
@@ -3712,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" ht="21" spans="1:3">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
@@ -3723,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" ht="21" spans="1:3">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
@@ -3734,7 +3123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" ht="21" spans="1:3">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
@@ -3745,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="21" spans="1:3">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
@@ -3756,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" ht="21" spans="1:3">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3767,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" ht="21" spans="1:3">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
@@ -3778,7 +3167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="21" spans="1:3">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
@@ -3789,7 +3178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" ht="21" spans="1:3">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
@@ -3800,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="21" spans="1:3">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
@@ -3811,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" ht="21" spans="1:3">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
@@ -3822,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" ht="21" spans="1:3">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
@@ -3833,7 +3222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="21" spans="1:3">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
@@ -3844,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="21" spans="1:3">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -3855,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="21" spans="1:3">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
@@ -3866,11 +3255,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" ht="21" spans="2:3">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" ht="21" spans="1:3">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="10" t="s">
         <v>136</v>
       </c>
@@ -3881,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" ht="21" spans="1:3">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="10" t="s">
         <v>136</v>
       </c>
@@ -3892,7 +3281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="21" spans="1:3">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="10" t="s">
         <v>136</v>
       </c>
@@ -3903,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" ht="21" spans="1:3">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="10" t="s">
         <v>136</v>
       </c>
@@ -3914,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" ht="21" spans="1:3">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="10" t="s">
         <v>136</v>
       </c>
@@ -3925,7 +3314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" ht="21" spans="1:3">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="10" t="s">
         <v>136</v>
       </c>
@@ -3936,7 +3325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" ht="21" spans="1:3">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="10" t="s">
         <v>136</v>
       </c>
@@ -3947,7 +3336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" ht="21" spans="1:3">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="10" t="s">
         <v>136</v>
       </c>
@@ -3958,7 +3347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" ht="21" spans="1:3">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="10" t="s">
         <v>136</v>
       </c>
@@ -3969,7 +3358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" ht="21" spans="1:3">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="10" t="s">
         <v>136</v>
       </c>
@@ -3980,7 +3369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="21" spans="1:3">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="10" t="s">
         <v>136</v>
       </c>
@@ -3991,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="21" spans="1:3">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="10" t="s">
         <v>136</v>
       </c>
@@ -4002,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="21" spans="1:3">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="10" t="s">
         <v>136</v>
       </c>
@@ -4013,7 +3402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="21" spans="1:3">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
@@ -4024,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" ht="21" spans="1:3">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="10" t="s">
         <v>136</v>
       </c>
@@ -4035,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" ht="21" spans="1:3">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="10" t="s">
         <v>136</v>
       </c>
@@ -4046,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" ht="21" spans="1:3">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="10" t="s">
         <v>136</v>
       </c>
@@ -4057,7 +3446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" ht="21" spans="1:3">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="10" t="s">
         <v>136</v>
       </c>
@@ -4068,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" ht="21" spans="1:3">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="10" t="s">
         <v>136</v>
       </c>
@@ -4079,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="21" spans="1:3">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="10" t="s">
         <v>136</v>
       </c>
@@ -4090,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" ht="21" spans="1:3">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="10" t="s">
         <v>136</v>
       </c>
@@ -4101,7 +3490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" ht="21" spans="1:3">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="10" t="s">
         <v>136</v>
       </c>
@@ -4112,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="21" spans="1:3">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="10" t="s">
         <v>136</v>
       </c>
@@ -4123,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="21" spans="1:3">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="10" t="s">
         <v>136</v>
       </c>
@@ -4134,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="21" spans="1:3">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="10" t="s">
         <v>136</v>
       </c>
@@ -4145,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="21" spans="1:3">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="10" t="s">
         <v>136</v>
       </c>
@@ -4156,7 +3545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="21" spans="1:3">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="10" t="s">
         <v>136</v>
       </c>
@@ -4167,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" ht="21" spans="1:3">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="10" t="s">
         <v>136</v>
       </c>
@@ -4178,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" ht="21" spans="1:3">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="10" t="s">
         <v>136</v>
       </c>
@@ -4189,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" ht="21" spans="1:3">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="10" t="s">
         <v>136</v>
       </c>
@@ -4200,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="21" spans="1:3">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="10" t="s">
         <v>136</v>
       </c>
@@ -4211,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" ht="21" spans="1:3">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="10" t="s">
         <v>136</v>
       </c>
@@ -4222,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="21" spans="1:3">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="10" t="s">
         <v>136</v>
       </c>
@@ -4233,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="21" spans="1:3">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="10" t="s">
         <v>136</v>
       </c>
@@ -4244,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" ht="21" spans="1:3">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="10" t="s">
         <v>136</v>
       </c>
@@ -4255,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="21" spans="1:3">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="10" t="s">
         <v>136</v>
       </c>
@@ -4266,11 +3655,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" ht="21" spans="2:3">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" ht="21" spans="1:3">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
@@ -4281,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" ht="21" spans="1:3">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
@@ -4292,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" ht="21" spans="1:3">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
@@ -4303,7 +3692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" ht="21" spans="1:3">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
@@ -4314,7 +3703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" ht="21" spans="1:3">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
@@ -4325,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" ht="21" spans="1:3">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
@@ -4336,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" ht="21" spans="1:3">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
@@ -4347,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" ht="21" spans="1:3">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
@@ -4358,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" ht="21" spans="1:3">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
@@ -4369,7 +3758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" ht="21" spans="1:3">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
@@ -4380,7 +3769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="21" spans="1:3">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
@@ -4391,7 +3780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" ht="21" spans="1:3">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
@@ -4402,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" ht="21" spans="1:3">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
@@ -4413,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" ht="21" spans="1:3">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
@@ -4424,7 +3813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" ht="21" spans="1:3">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
@@ -4435,7 +3824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" ht="21" spans="1:3">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
@@ -4446,7 +3835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" ht="21" spans="1:3">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
@@ -4457,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" ht="21" spans="1:3">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
@@ -4468,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" ht="21" spans="1:3">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
@@ -4479,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="21" spans="1:3">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
@@ -4490,7 +3879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="21" spans="1:3">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
@@ -4501,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="21" spans="1:3">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
@@ -4512,7 +3901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="21" spans="1:3">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
@@ -4523,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="21" spans="1:3">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
@@ -4534,7 +3923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="21" spans="1:3">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
@@ -4545,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="21" spans="1:3">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
@@ -4556,7 +3945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" ht="21" spans="1:3">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
@@ -4567,7 +3956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="21" spans="1:3">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
@@ -4578,7 +3967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" ht="21" spans="1:3">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
@@ -4589,7 +3978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="21" spans="1:3">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
@@ -4600,7 +3989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="21" spans="1:3">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
@@ -4611,7 +4000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="21" spans="1:3">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
@@ -4622,7 +4011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="21" spans="1:3">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
@@ -4633,7 +4022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="21" spans="1:3">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
@@ -4644,7 +4033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" ht="21" spans="1:3">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
@@ -4655,17 +4044,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="21" spans="1:3">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="10"/>
       <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" ht="21" spans="1:3">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="10"/>
       <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" ht="21" spans="1:3">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
@@ -4676,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" ht="21" spans="1:3">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
@@ -4687,7 +4076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" ht="21" spans="1:3">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
@@ -4698,7 +4087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" ht="21" spans="1:3">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
@@ -4709,7 +4098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" ht="21" spans="1:3">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
@@ -4720,7 +4109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" ht="21" spans="1:3">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
@@ -4731,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" ht="21" spans="1:3">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
@@ -4742,7 +4131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="21" spans="1:3">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
@@ -4753,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" ht="21" spans="1:3">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
@@ -4764,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" ht="21" spans="1:3">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
@@ -4775,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" ht="21" spans="1:3">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
@@ -4786,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" ht="21" spans="1:3">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
@@ -4797,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" ht="21" spans="1:3">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
@@ -4808,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" ht="21" spans="1:3">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
@@ -4819,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" ht="21" spans="1:3">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
@@ -4830,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" ht="21" spans="1:3">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
@@ -4841,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" ht="21" spans="1:3">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
@@ -4852,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" ht="21" spans="1:3">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
@@ -4863,7 +4252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" ht="21" spans="1:3">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>209</v>
       </c>
@@ -4874,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" ht="21" spans="1:3">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>209</v>
       </c>
@@ -4885,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" ht="21" spans="1:3">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -4896,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" ht="21" spans="1:3">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
@@ -4907,15 +4296,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" ht="21" spans="2:3">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" ht="21" spans="2:3">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" ht="21" spans="1:3">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>232</v>
       </c>
@@ -4926,7 +4315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" ht="21" spans="1:3">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>232</v>
       </c>
@@ -4937,7 +4326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" ht="21" spans="1:3">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>232</v>
       </c>
@@ -4948,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" ht="21" spans="1:3">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>232</v>
       </c>
@@ -4959,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" ht="21" spans="1:3">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>232</v>
       </c>
@@ -4970,7 +4359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" ht="21" spans="1:3">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>232</v>
       </c>
@@ -4981,7 +4370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" ht="21" spans="1:3">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>232</v>
       </c>
@@ -4992,7 +4381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" ht="21" spans="1:3">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>232</v>
       </c>
@@ -5003,7 +4392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" ht="21" spans="1:3">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>232</v>
       </c>
@@ -5014,7 +4403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" ht="21" spans="1:3">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>232</v>
       </c>
@@ -5025,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" ht="21" spans="1:3">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>232</v>
       </c>
@@ -5036,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" ht="21" spans="1:3">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>232</v>
       </c>
@@ -5047,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" ht="21" spans="1:3">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>232</v>
       </c>
@@ -5058,7 +4447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" ht="21" spans="1:3">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>232</v>
       </c>
@@ -5069,7 +4458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" ht="21" spans="1:3">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>232</v>
       </c>
@@ -5080,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" ht="21" spans="1:3">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>232</v>
       </c>
@@ -5091,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" ht="21" spans="1:3">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>232</v>
       </c>
@@ -5102,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" ht="21" spans="1:3">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>232</v>
       </c>
@@ -5113,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" ht="21" spans="1:3">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>232</v>
       </c>
@@ -5124,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" ht="21" spans="1:3">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -5135,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" ht="21" spans="1:3">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>232</v>
       </c>
@@ -5146,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" ht="21" spans="1:3">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>232</v>
       </c>
@@ -5157,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" ht="21" spans="1:3">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>232</v>
       </c>
@@ -5168,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" ht="21" spans="1:3">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>232</v>
       </c>
@@ -5179,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" ht="21" spans="1:3">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>232</v>
       </c>
@@ -5190,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" ht="21" spans="1:3">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>232</v>
       </c>
@@ -5201,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" ht="21" spans="1:3">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>232</v>
       </c>
@@ -5212,7 +4601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" ht="21" spans="1:3">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>232</v>
       </c>
@@ -5223,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" ht="21" spans="1:3">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>232</v>
       </c>
@@ -5234,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" ht="21" spans="1:3">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>232</v>
       </c>
@@ -5245,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" ht="21" spans="1:3">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>232</v>
       </c>
@@ -5256,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" ht="21" spans="1:3">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>232</v>
       </c>
@@ -5267,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" ht="21" spans="1:3">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>232</v>
       </c>
@@ -5278,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" ht="21" spans="1:3">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>232</v>
       </c>
@@ -5289,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" ht="21" spans="1:3">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>232</v>
       </c>
@@ -5300,15 +4689,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" ht="21" spans="2:3">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" ht="21" spans="2:3">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" ht="21" spans="1:3">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>267</v>
       </c>
@@ -5319,7 +4708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" ht="21" spans="1:3">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>267</v>
       </c>
@@ -5330,7 +4719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" ht="21" spans="1:3">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>267</v>
       </c>
@@ -5341,7 +4730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" ht="21" spans="1:3">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>267</v>
       </c>
@@ -5352,7 +4741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" ht="21" spans="1:3">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>267</v>
       </c>
@@ -5363,7 +4752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" ht="21" spans="1:3">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>267</v>
       </c>
@@ -5374,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" ht="21" spans="1:3">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>267</v>
       </c>
@@ -5385,7 +4774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" ht="21" spans="1:3">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>267</v>
       </c>
@@ -5396,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" ht="21" spans="1:3">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>267</v>
       </c>
@@ -5407,7 +4796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" ht="21" spans="1:3">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>267</v>
       </c>
@@ -5418,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" ht="21" spans="1:3">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>267</v>
       </c>
@@ -5429,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" ht="21" spans="1:3">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>267</v>
       </c>
@@ -5440,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="21" spans="1:3">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>267</v>
       </c>
@@ -5451,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" ht="21" spans="1:3">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>267</v>
       </c>
@@ -5462,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" ht="21" spans="1:3">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>267</v>
       </c>
@@ -5473,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" ht="21" spans="1:3">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>267</v>
       </c>
@@ -5484,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" ht="21" spans="1:3">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>267</v>
       </c>
@@ -5495,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" ht="21" spans="1:3">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>267</v>
       </c>
@@ -5506,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" ht="21" spans="1:3">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>267</v>
       </c>
@@ -5517,15 +4906,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" ht="21" spans="2:3">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" ht="21" spans="2:3">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" ht="21" spans="1:3">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>287</v>
       </c>
@@ -5536,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" ht="21" spans="1:3">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>287</v>
       </c>
@@ -5547,7 +4936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" ht="21" spans="1:3">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
@@ -5558,7 +4947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" ht="21" spans="1:3">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
@@ -5569,7 +4958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" ht="21" spans="1:3">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
@@ -5580,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" ht="21" spans="1:3">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
@@ -5591,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" ht="21" spans="1:3">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>287</v>
       </c>
@@ -5602,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" ht="21" spans="1:3">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>287</v>
       </c>
@@ -5613,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" ht="21" spans="1:3">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>287</v>
       </c>
@@ -5624,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" ht="21" spans="1:3">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>287</v>
       </c>
@@ -5635,7 +5024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" ht="21" spans="1:3">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -5646,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" ht="21" spans="1:3">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -5657,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" ht="21" spans="1:3">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>287</v>
       </c>
@@ -5668,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" ht="21" spans="1:3">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
@@ -5679,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" ht="21" spans="1:3">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>287</v>
       </c>
@@ -5690,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" ht="21" spans="1:3">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>287</v>
       </c>
@@ -5701,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" ht="21" spans="1:3">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>287</v>
       </c>
@@ -5712,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" ht="21" spans="1:3">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>287</v>
       </c>
@@ -5723,7 +5112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" ht="21" spans="1:3">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>287</v>
       </c>
@@ -5734,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" ht="21" spans="1:3">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>287</v>
       </c>
@@ -5745,7 +5134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" ht="21" spans="1:3">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>287</v>
       </c>
@@ -5756,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" ht="21" spans="1:3">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>287</v>
       </c>
@@ -5767,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" ht="21" spans="1:3">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>287</v>
       </c>
@@ -5778,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" ht="21" spans="1:3">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>287</v>
       </c>
@@ -5789,7 +5178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" ht="21" spans="1:3">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>287</v>
       </c>
@@ -5800,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" ht="21" spans="1:3">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>287</v>
       </c>
@@ -5811,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" ht="21" spans="1:3">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>287</v>
       </c>
@@ -5822,7 +5211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" ht="21" spans="1:3">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>287</v>
       </c>
@@ -5833,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" ht="21" spans="1:3">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>287</v>
       </c>
@@ -5844,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" ht="21" spans="1:3">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>287</v>
       </c>
@@ -5855,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" ht="21" spans="1:3">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>287</v>
       </c>
@@ -5866,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" ht="21" spans="1:3">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>287</v>
       </c>
@@ -5877,7 +5266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" ht="21" spans="1:3">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>287</v>
       </c>
@@ -5888,7 +5277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" ht="21" spans="1:3">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>287</v>
       </c>
@@ -5899,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" ht="21" spans="1:3">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>287</v>
       </c>
@@ -5910,7 +5299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" ht="21" spans="1:3">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>287</v>
       </c>
@@ -5921,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" ht="21" spans="1:3">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>287</v>
       </c>
@@ -5932,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" ht="21" spans="1:3">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>287</v>
       </c>
@@ -5943,15 +5332,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" ht="21" spans="2:3">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" ht="21" spans="2:3">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" ht="21" spans="1:3">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="10" t="s">
         <v>326</v>
       </c>
@@ -5962,7 +5351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" ht="21" spans="1:3">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="10" t="s">
         <v>326</v>
       </c>
@@ -5973,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" ht="21" spans="1:3">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="10" t="s">
         <v>326</v>
       </c>
@@ -5984,7 +5373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" ht="21" spans="1:3">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="10" t="s">
         <v>326</v>
       </c>
@@ -5995,7 +5384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" ht="21" spans="1:3">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="10" t="s">
         <v>326</v>
       </c>
@@ -6006,7 +5395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" ht="21" spans="1:3">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="10" t="s">
         <v>326</v>
       </c>
@@ -6017,7 +5406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" ht="21" spans="1:3">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="10" t="s">
         <v>326</v>
       </c>
@@ -6028,7 +5417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" ht="21" spans="1:3">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="10" t="s">
         <v>326</v>
       </c>
@@ -6039,7 +5428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" ht="21" spans="1:3">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="10" t="s">
         <v>326</v>
       </c>
@@ -6050,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" ht="21" spans="1:3">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="10" t="s">
         <v>326</v>
       </c>
@@ -6061,7 +5450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" ht="21" spans="1:3">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="10" t="s">
         <v>326</v>
       </c>
@@ -6072,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" ht="21" spans="1:3">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="10" t="s">
         <v>326</v>
       </c>
@@ -6083,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" ht="21" spans="1:3">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="10" t="s">
         <v>326</v>
       </c>
@@ -6094,7 +5483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" ht="21" spans="1:3">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="10" t="s">
         <v>326</v>
       </c>
@@ -6105,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" ht="21" spans="1:3">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="10" t="s">
         <v>326</v>
       </c>
@@ -6116,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" ht="21" spans="1:3">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="10" t="s">
         <v>326</v>
       </c>
@@ -6127,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" ht="21" spans="1:3">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="10" t="s">
         <v>326</v>
       </c>
@@ -6138,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="21" spans="1:3">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="10" t="s">
         <v>326</v>
       </c>
@@ -6149,15 +5538,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" ht="21" spans="2:3">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" ht="21" spans="2:3">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" ht="21" spans="1:3">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="10" t="s">
         <v>345</v>
       </c>
@@ -6168,7 +5557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" ht="21" spans="1:3">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="10" t="s">
         <v>345</v>
       </c>
@@ -6179,7 +5568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" ht="21" spans="1:3">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="10" t="s">
         <v>345</v>
       </c>
@@ -6190,7 +5579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="21" spans="1:3">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="10" t="s">
         <v>345</v>
       </c>
@@ -6201,7 +5590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" ht="21" spans="1:3">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="10" t="s">
         <v>345</v>
       </c>
@@ -6212,7 +5601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" ht="21" spans="1:3">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="10" t="s">
         <v>345</v>
       </c>
@@ -6223,7 +5612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" ht="21" spans="1:3">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="10" t="s">
         <v>345</v>
       </c>
@@ -6234,7 +5623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" ht="21" spans="1:3">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="10" t="s">
         <v>345</v>
       </c>
@@ -6245,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" ht="21" spans="1:3">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="10" t="s">
         <v>345</v>
       </c>
@@ -6256,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" ht="21" spans="1:3">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="10" t="s">
         <v>345</v>
       </c>
@@ -6267,7 +5656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" ht="21" spans="1:3">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="10" t="s">
         <v>345</v>
       </c>
@@ -6278,7 +5667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" ht="21" spans="1:3">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="10" t="s">
         <v>345</v>
       </c>
@@ -6289,7 +5678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" ht="21" spans="1:3">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="10" t="s">
         <v>345</v>
       </c>
@@ -6300,7 +5689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" ht="21" spans="1:3">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="10" t="s">
         <v>345</v>
       </c>
@@ -6311,7 +5700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" ht="21" spans="1:3">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="10" t="s">
         <v>345</v>
       </c>
@@ -6322,7 +5711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" ht="21" spans="1:3">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="10" t="s">
         <v>345</v>
       </c>
@@ -6333,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" ht="21" spans="1:3">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="10" t="s">
         <v>345</v>
       </c>
@@ -6344,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" ht="21" spans="1:3">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="10" t="s">
         <v>345</v>
       </c>
@@ -6355,7 +5744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" ht="21" spans="1:3">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="10" t="s">
         <v>345</v>
       </c>
@@ -6366,7 +5755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" ht="21" spans="1:3">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="10" t="s">
         <v>345</v>
       </c>
@@ -6377,7 +5766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" ht="21" spans="1:3">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="10" t="s">
         <v>345</v>
       </c>
@@ -6388,7 +5777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" ht="21" spans="1:3">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="10" t="s">
         <v>345</v>
       </c>
@@ -6399,7 +5788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" ht="21" spans="1:3">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="10" t="s">
         <v>345</v>
       </c>
@@ -6410,7 +5799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" ht="21" spans="1:3">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="10" t="s">
         <v>345</v>
       </c>
@@ -6421,7 +5810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" ht="21" spans="1:3">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="10" t="s">
         <v>345</v>
       </c>
@@ -6432,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" ht="21" spans="1:3">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="10" t="s">
         <v>345</v>
       </c>
@@ -6443,7 +5832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" ht="21" spans="1:3">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="10" t="s">
         <v>345</v>
       </c>
@@ -6454,7 +5843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" ht="21" spans="1:3">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="10" t="s">
         <v>345</v>
       </c>
@@ -6465,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" ht="21" spans="1:3">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="10" t="s">
         <v>345</v>
       </c>
@@ -6476,7 +5865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" ht="21" spans="1:3">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="10" t="s">
         <v>345</v>
       </c>
@@ -6487,7 +5876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" ht="21" spans="1:3">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="10" t="s">
         <v>345</v>
       </c>
@@ -6498,7 +5887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" ht="21" spans="1:3">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="10" t="s">
         <v>345</v>
       </c>
@@ -6509,7 +5898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" ht="21" spans="1:3">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="10" t="s">
         <v>345</v>
       </c>
@@ -6520,7 +5909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" ht="21" spans="1:3">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="10" t="s">
         <v>345</v>
       </c>
@@ -6531,7 +5920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="21" spans="1:3">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="10" t="s">
         <v>345</v>
       </c>
@@ -6542,7 +5931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" ht="21" spans="1:3">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="10" t="s">
         <v>345</v>
       </c>
@@ -6553,7 +5942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" ht="21" spans="1:3">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="10" t="s">
         <v>345</v>
       </c>
@@ -6564,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" ht="21" spans="1:3">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="10" t="s">
         <v>345</v>
       </c>
@@ -6575,7 +5964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" ht="21" spans="1:3">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="10" t="s">
         <v>345</v>
       </c>
@@ -6586,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" ht="21" spans="1:3">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="10" t="s">
         <v>345</v>
       </c>
@@ -6597,7 +5986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" ht="21" spans="1:3">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="10" t="s">
         <v>345</v>
       </c>
@@ -6608,7 +5997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" ht="21" spans="1:3">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="10" t="s">
         <v>345</v>
       </c>
@@ -6619,7 +6008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" ht="21" spans="1:3">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="10" t="s">
         <v>345</v>
       </c>
@@ -6630,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" ht="21" spans="1:3">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="10" t="s">
         <v>345</v>
       </c>
@@ -6641,15 +6030,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" ht="21" spans="2:3">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" ht="21" spans="2:3">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" ht="21" spans="1:3">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="10" t="s">
         <v>389</v>
       </c>
@@ -6660,7 +6049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" ht="21" spans="1:3">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="10" t="s">
         <v>389</v>
       </c>
@@ -6671,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" ht="21" spans="1:3">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="10" t="s">
         <v>389</v>
       </c>
@@ -6682,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" ht="21" spans="1:3">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="10" t="s">
         <v>389</v>
       </c>
@@ -6693,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" ht="21" spans="1:3">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="10" t="s">
         <v>389</v>
       </c>
@@ -6704,7 +6093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" ht="21" spans="1:3">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="10" t="s">
         <v>389</v>
       </c>
@@ -6715,15 +6104,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" ht="21" spans="2:3">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" ht="21" spans="2:3">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" ht="21" spans="1:3">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>395</v>
       </c>
@@ -6734,7 +6123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" ht="21" spans="1:3">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>395</v>
       </c>
@@ -6745,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" ht="21" spans="1:3">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -6756,7 +6145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" ht="21" spans="1:3">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>395</v>
       </c>
@@ -6767,7 +6156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" ht="21" spans="1:3">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>395</v>
       </c>
@@ -6778,7 +6167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" ht="21" spans="1:3">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>395</v>
       </c>
@@ -6789,7 +6178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" ht="21" spans="1:3">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>395</v>
       </c>
@@ -6800,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" ht="21" spans="1:3">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -6811,7 +6200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" ht="21" spans="1:3">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>395</v>
       </c>
@@ -6822,7 +6211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" ht="21" spans="1:3">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>395</v>
       </c>
@@ -6833,7 +6222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" ht="21" spans="1:3">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>395</v>
       </c>
@@ -6844,7 +6233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" ht="21" spans="1:3">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>395</v>
       </c>
@@ -6855,7 +6244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" ht="21" spans="1:3">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>395</v>
       </c>
@@ -6866,7 +6255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" ht="21" spans="1:3">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>395</v>
       </c>
@@ -6877,7 +6266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" ht="21" spans="1:3">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>395</v>
       </c>
@@ -6888,7 +6277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" ht="21" spans="1:3">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>395</v>
       </c>
@@ -6899,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" ht="21" spans="1:3">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>395</v>
       </c>
@@ -6910,7 +6299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" ht="21" spans="1:3">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>395</v>
       </c>
@@ -6921,7 +6310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" ht="21" spans="1:3">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>395</v>
       </c>
@@ -6932,7 +6321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" ht="21" spans="1:3">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>395</v>
       </c>
@@ -6943,7 +6332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" ht="21" spans="1:3">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>395</v>
       </c>
@@ -6954,7 +6343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" ht="21" spans="1:3">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>395</v>
       </c>
@@ -6965,7 +6354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" ht="21" spans="1:3">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>395</v>
       </c>
@@ -6976,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" ht="21" spans="1:3">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>395</v>
       </c>
@@ -6987,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" ht="21" spans="1:3">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>395</v>
       </c>
@@ -6998,7 +6387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" ht="21" spans="1:3">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>395</v>
       </c>
@@ -7009,7 +6398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" ht="21" spans="1:3">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>395</v>
       </c>
@@ -7020,7 +6409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" ht="21" spans="1:3">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>395</v>
       </c>
@@ -7031,7 +6420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" ht="21" spans="1:3">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>395</v>
       </c>
@@ -7042,7 +6431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" ht="21" spans="1:3">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>395</v>
       </c>
@@ -7053,7 +6442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" ht="21" spans="1:3">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>395</v>
       </c>
@@ -7064,7 +6453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" ht="21" spans="1:3">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>395</v>
       </c>
@@ -7075,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" ht="21" spans="1:3">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>395</v>
       </c>
@@ -7086,7 +6475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" ht="21" spans="1:3">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>395</v>
       </c>
@@ -7097,7 +6486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" ht="21" spans="1:3">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>395</v>
       </c>
@@ -7108,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" ht="21" spans="1:3">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>395</v>
       </c>
@@ -7119,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" ht="21" spans="1:3">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>395</v>
       </c>
@@ -7130,7 +6519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" ht="21" spans="1:3">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>395</v>
       </c>
@@ -7141,7 +6530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" ht="21" spans="1:3">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>395</v>
       </c>
@@ -7152,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" ht="21" spans="1:3">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>395</v>
       </c>
@@ -7163,7 +6552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" ht="21" spans="1:3">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>395</v>
       </c>
@@ -7174,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" ht="21" spans="1:3">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>395</v>
       </c>
@@ -7185,7 +6574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" ht="21" spans="1:3">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>395</v>
       </c>
@@ -7196,7 +6585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" ht="21" spans="1:3">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>395</v>
       </c>
@@ -7207,7 +6596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" ht="21" spans="1:3">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>395</v>
       </c>
@@ -7218,7 +6607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" ht="21" spans="1:3">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>395</v>
       </c>
@@ -7229,7 +6618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" ht="21" spans="1:3">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>395</v>
       </c>
@@ -7240,7 +6629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" ht="21" spans="1:3">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>395</v>
       </c>
@@ -7251,7 +6640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" ht="21" spans="1:3">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>395</v>
       </c>
@@ -7262,7 +6651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" ht="21" spans="1:3">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>395</v>
       </c>
@@ -7273,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" ht="21" spans="1:3">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>395</v>
       </c>
@@ -7284,7 +6673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" ht="21" spans="1:3">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>395</v>
       </c>
@@ -7295,7 +6684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" ht="21" spans="1:3">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>395</v>
       </c>
@@ -7306,7 +6695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" ht="21" spans="1:3">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>395</v>
       </c>
@@ -7317,7 +6706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" ht="21" spans="1:3">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>395</v>
       </c>
@@ -7328,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" ht="21" spans="1:3">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>395</v>
       </c>
@@ -7339,7 +6728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" ht="21" spans="1:3">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>395</v>
       </c>
@@ -7350,7 +6739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" ht="21" spans="1:3">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>395</v>
       </c>
@@ -7361,7 +6750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" ht="21" spans="1:3">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>395</v>
       </c>
@@ -7372,7 +6761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="21" spans="1:3">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>395</v>
       </c>
@@ -7383,16 +6772,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" ht="21" spans="2:3">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" ht="21" spans="1:3">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="10"/>
       <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" ht="21" spans="1:3">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>455</v>
       </c>
@@ -7403,7 +6792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" ht="21" spans="1:3">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>455</v>
       </c>
@@ -7414,7 +6803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" ht="21" spans="1:3">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>455</v>
       </c>
@@ -7425,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" ht="21" spans="1:3">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>455</v>
       </c>
@@ -7436,7 +6825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" ht="21" spans="1:3">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>455</v>
       </c>
@@ -7447,7 +6836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" ht="21" spans="1:3">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>455</v>
       </c>
@@ -7458,7 +6847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" ht="21" spans="1:3">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>455</v>
       </c>
@@ -7469,7 +6858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" ht="21" spans="1:3">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
@@ -7480,7 +6869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" ht="21" spans="1:3">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>455</v>
       </c>
@@ -7491,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" ht="21" spans="1:3">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>455</v>
       </c>
@@ -7504,454 +6893,453 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B257" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B306" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B379" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B480" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAANG Crack\DSA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DAABC-6F01-4626-BB76-3B7F49A3BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1423,8 +1417,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1495,16 +1495,345 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1512,17 +1841,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,28 +2101,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1812,36 +2423,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.8">
+    <row r="1" ht="26.25" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" ht="21" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1852,12 +2463,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="3:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" ht="21" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" ht="21" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" ht="21" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1890,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" ht="21" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1901,7 +2512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" ht="21" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +2523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" ht="21" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" ht="21" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +2589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1989,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2000,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" ht="21" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" ht="21" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2099,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" ht="21" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" ht="21" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" ht="21" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2132,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" ht="21" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" ht="21" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2154,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" ht="21" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" ht="21" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" ht="21" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" ht="21" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" ht="21" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" ht="21" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2231,7 +2842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" ht="21" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" ht="21" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2253,20 +2864,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" ht="21" spans="1:3">
       <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
@@ -2277,7 +2888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" ht="21" spans="1:3">
       <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2288,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" ht="21" spans="1:3">
       <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
@@ -2299,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" ht="21" spans="1:3">
       <c r="A47" s="10" t="s">
         <v>44</v>
       </c>
@@ -2310,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" ht="21" spans="1:3">
       <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
@@ -2321,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" ht="21" spans="1:3">
       <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
@@ -2332,7 +2943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" ht="21" spans="1:3">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -2343,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" ht="21" spans="1:3">
       <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
@@ -2354,7 +2965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" ht="21" spans="1:3">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" ht="21" spans="1:3">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -2376,12 +2987,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" ht="21" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2392,7 +3003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" ht="21" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -2403,7 +3014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" ht="21" spans="1:3">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
@@ -2414,7 +3025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" ht="21" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -2425,7 +3036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" ht="21" spans="1:3">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -2436,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" ht="21" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" ht="21" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -2458,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" ht="21" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -2469,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" ht="21" spans="1:3">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
@@ -2480,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" ht="21" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -2491,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" ht="21" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -2502,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" ht="21" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
@@ -2513,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" ht="21" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
@@ -2524,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" ht="21" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>55</v>
       </c>
@@ -2535,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" ht="21" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
@@ -2546,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" ht="21" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>55</v>
       </c>
@@ -2557,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" ht="21" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -2568,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" ht="21" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>55</v>
       </c>
@@ -2579,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" ht="21" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>55</v>
       </c>
@@ -2590,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" ht="21" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>55</v>
       </c>
@@ -2601,7 +3212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" ht="21" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
@@ -2612,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" ht="21" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>55</v>
       </c>
@@ -2623,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" ht="21" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>55</v>
       </c>
@@ -2634,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" ht="21" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
@@ -2645,7 +3256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" ht="21" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
@@ -2656,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" ht="21" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>55</v>
       </c>
@@ -2667,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" ht="21" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>55</v>
       </c>
@@ -2678,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" ht="21" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>55</v>
       </c>
@@ -2689,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" ht="21" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>55</v>
       </c>
@@ -2700,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" ht="21" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>55</v>
       </c>
@@ -2711,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" ht="21" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>55</v>
       </c>
@@ -2722,7 +3333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" ht="21" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>55</v>
       </c>
@@ -2733,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" ht="21" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>55</v>
       </c>
@@ -2744,7 +3355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" ht="21" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -2755,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" ht="21" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -2766,7 +3377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" ht="21" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -2777,7 +3388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" ht="21" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>55</v>
       </c>
@@ -2788,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" ht="21" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>55</v>
       </c>
@@ -2799,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" ht="21" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" ht="21" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>55</v>
       </c>
@@ -2821,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" ht="21" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>55</v>
       </c>
@@ -2832,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" ht="21" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>55</v>
       </c>
@@ -2843,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" ht="21" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>55</v>
       </c>
@@ -2854,12 +3465,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" ht="21" spans="1:3">
       <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" ht="21" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -2870,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" ht="21" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -2881,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
@@ -2889,10 +3500,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" ht="21" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
@@ -2903,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" ht="21" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
@@ -2914,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" ht="21" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
@@ -2925,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" ht="21" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -2936,7 +3547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" ht="21" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -2947,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" ht="21" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
@@ -2958,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" ht="21" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
@@ -2969,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" ht="21" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
@@ -2980,7 +3591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" ht="21" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
@@ -2991,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" ht="21" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
@@ -3002,7 +3613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" ht="21" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
@@ -3013,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row r="115" ht="21" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
@@ -3024,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" ht="21" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
@@ -3035,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" ht="21" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
@@ -3046,7 +3657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" ht="21" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
@@ -3057,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" ht="21" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
@@ -3068,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" ht="21" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
@@ -3079,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" ht="21" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
@@ -3090,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" ht="21" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
@@ -3101,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" ht="21" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
@@ -3112,7 +3723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" ht="21" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
@@ -3123,7 +3734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" ht="21" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
@@ -3134,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
@@ -3145,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" ht="21" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3156,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" ht="21" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
@@ -3167,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" ht="21" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
@@ -3178,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" ht="21" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
@@ -3189,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" ht="21" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
@@ -3200,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" ht="21" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
@@ -3211,7 +3822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" ht="21" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
@@ -3222,7 +3833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" ht="21" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
@@ -3233,7 +3844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" ht="21" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -3244,7 +3855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" ht="21" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
@@ -3255,11 +3866,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" ht="21" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" ht="21" spans="1:3">
       <c r="A139" s="10" t="s">
         <v>136</v>
       </c>
@@ -3270,7 +3881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" ht="21" spans="1:3">
       <c r="A140" s="10" t="s">
         <v>136</v>
       </c>
@@ -3281,7 +3892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" ht="21" spans="1:3">
       <c r="A141" s="10" t="s">
         <v>136</v>
       </c>
@@ -3292,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" ht="21" spans="1:3">
       <c r="A142" s="10" t="s">
         <v>136</v>
       </c>
@@ -3303,7 +3914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" ht="21" spans="1:3">
       <c r="A143" s="10" t="s">
         <v>136</v>
       </c>
@@ -3314,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" ht="21" spans="1:3">
       <c r="A144" s="10" t="s">
         <v>136</v>
       </c>
@@ -3325,7 +3936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" ht="21" spans="1:3">
       <c r="A145" s="10" t="s">
         <v>136</v>
       </c>
@@ -3336,7 +3947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" ht="21" spans="1:3">
       <c r="A146" s="10" t="s">
         <v>136</v>
       </c>
@@ -3347,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" ht="21" spans="1:3">
       <c r="A147" s="10" t="s">
         <v>136</v>
       </c>
@@ -3358,7 +3969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" ht="21" spans="1:3">
       <c r="A148" s="10" t="s">
         <v>136</v>
       </c>
@@ -3369,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" ht="21" spans="1:3">
       <c r="A149" s="10" t="s">
         <v>136</v>
       </c>
@@ -3380,7 +3991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" ht="21" spans="1:3">
       <c r="A150" s="10" t="s">
         <v>136</v>
       </c>
@@ -3391,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" ht="21" spans="1:3">
       <c r="A151" s="10" t="s">
         <v>136</v>
       </c>
@@ -3402,7 +4013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" ht="21" spans="1:3">
       <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
@@ -3413,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" ht="21" spans="1:3">
       <c r="A153" s="10" t="s">
         <v>136</v>
       </c>
@@ -3424,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" ht="21" spans="1:3">
       <c r="A154" s="10" t="s">
         <v>136</v>
       </c>
@@ -3435,7 +4046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" ht="21" spans="1:3">
       <c r="A155" s="10" t="s">
         <v>136</v>
       </c>
@@ -3446,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" ht="21" spans="1:3">
       <c r="A156" s="10" t="s">
         <v>136</v>
       </c>
@@ -3457,7 +4068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" ht="21" spans="1:3">
       <c r="A157" s="10" t="s">
         <v>136</v>
       </c>
@@ -3468,7 +4079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" ht="21" spans="1:3">
       <c r="A158" s="10" t="s">
         <v>136</v>
       </c>
@@ -3479,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" ht="21" spans="1:3">
       <c r="A159" s="10" t="s">
         <v>136</v>
       </c>
@@ -3490,7 +4101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" ht="21" spans="1:3">
       <c r="A160" s="10" t="s">
         <v>136</v>
       </c>
@@ -3501,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" ht="21" spans="1:3">
       <c r="A161" s="10" t="s">
         <v>136</v>
       </c>
@@ -3512,7 +4123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row r="162" ht="21" spans="1:3">
       <c r="A162" s="10" t="s">
         <v>136</v>
       </c>
@@ -3523,7 +4134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row r="163" ht="21" spans="1:3">
       <c r="A163" s="10" t="s">
         <v>136</v>
       </c>
@@ -3534,7 +4145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row r="164" ht="21" spans="1:3">
       <c r="A164" s="10" t="s">
         <v>136</v>
       </c>
@@ -3545,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row r="165" ht="21" spans="1:3">
       <c r="A165" s="10" t="s">
         <v>136</v>
       </c>
@@ -3556,7 +4167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row r="166" ht="21" spans="1:3">
       <c r="A166" s="10" t="s">
         <v>136</v>
       </c>
@@ -3567,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
+    <row r="167" ht="21" spans="1:3">
       <c r="A167" s="10" t="s">
         <v>136</v>
       </c>
@@ -3578,7 +4189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" ht="21" spans="1:3">
       <c r="A168" s="10" t="s">
         <v>136</v>
       </c>
@@ -3589,7 +4200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" ht="21" spans="1:3">
       <c r="A169" s="10" t="s">
         <v>136</v>
       </c>
@@ -3600,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row r="170" ht="21" spans="1:3">
       <c r="A170" s="10" t="s">
         <v>136</v>
       </c>
@@ -3611,7 +4222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row r="171" ht="21" spans="1:3">
       <c r="A171" s="10" t="s">
         <v>136</v>
       </c>
@@ -3622,7 +4233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
+    <row r="172" ht="21" spans="1:3">
       <c r="A172" s="10" t="s">
         <v>136</v>
       </c>
@@ -3633,7 +4244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
+    <row r="173" ht="21" spans="1:3">
       <c r="A173" s="10" t="s">
         <v>136</v>
       </c>
@@ -3644,7 +4255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row r="174" ht="21" spans="1:3">
       <c r="A174" s="10" t="s">
         <v>136</v>
       </c>
@@ -3655,11 +4266,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="176" ht="21" spans="2:3">
       <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" ht="21" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
@@ -3670,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
@@ -3681,7 +4292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
@@ -3692,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
@@ -3703,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
@@ -3714,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
@@ -3725,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" ht="21" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
@@ -3736,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" ht="21" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
@@ -3747,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
@@ -3758,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
@@ -3769,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
@@ -3780,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
@@ -3791,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
@@ -3802,7 +4413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
@@ -3813,7 +4424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
@@ -3824,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
@@ -3835,7 +4446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
@@ -3846,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
@@ -3857,7 +4468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
@@ -3868,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
@@ -3879,7 +4490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
@@ -3890,7 +4501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
@@ -3901,7 +4512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
@@ -3912,7 +4523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
@@ -3923,7 +4534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
@@ -3934,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
@@ -3945,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
@@ -3956,7 +4567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
@@ -3967,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
@@ -3978,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
@@ -3989,7 +4600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
@@ -4000,7 +4611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
@@ -4011,7 +4622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
@@ -4022,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
@@ -4033,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
@@ -4044,17 +4655,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" ht="21" spans="1:3">
       <c r="A212" s="10"/>
       <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" ht="21" spans="1:3">
       <c r="A213" s="10"/>
       <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" ht="21" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
@@ -4065,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
@@ -4076,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
@@ -4087,7 +4698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
@@ -4098,7 +4709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
@@ -4109,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
@@ -4120,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" ht="21" spans="1:3">
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
@@ -4131,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
@@ -4142,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
@@ -4153,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
@@ -4164,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
@@ -4175,7 +4786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
@@ -4186,7 +4797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
@@ -4197,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
@@ -4208,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
@@ -4219,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
@@ -4230,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
@@ -4241,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
@@ -4252,7 +4863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" ht="21" spans="1:3">
       <c r="A232" s="6" t="s">
         <v>209</v>
       </c>
@@ -4263,7 +4874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" ht="21" spans="1:3">
       <c r="A233" s="6" t="s">
         <v>209</v>
       </c>
@@ -4274,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" ht="21" spans="1:3">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -4285,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
@@ -4296,15 +4907,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" ht="21" spans="2:3">
       <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" ht="21" spans="2:3">
       <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" ht="21" spans="1:3">
       <c r="A238" s="6" t="s">
         <v>232</v>
       </c>
@@ -4315,7 +4926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" ht="21" spans="1:3">
       <c r="A239" s="6" t="s">
         <v>232</v>
       </c>
@@ -4326,7 +4937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" ht="21" spans="1:3">
       <c r="A240" s="6" t="s">
         <v>232</v>
       </c>
@@ -4337,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" ht="21" spans="1:3">
       <c r="A241" s="6" t="s">
         <v>232</v>
       </c>
@@ -4348,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" ht="21" spans="1:3">
       <c r="A242" s="6" t="s">
         <v>232</v>
       </c>
@@ -4359,7 +4970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" ht="21" spans="1:3">
       <c r="A243" s="6" t="s">
         <v>232</v>
       </c>
@@ -4370,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" ht="21" spans="1:3">
       <c r="A244" s="6" t="s">
         <v>232</v>
       </c>
@@ -4381,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" ht="21" spans="1:3">
       <c r="A245" s="6" t="s">
         <v>232</v>
       </c>
@@ -4392,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" ht="21" spans="1:3">
       <c r="A246" s="6" t="s">
         <v>232</v>
       </c>
@@ -4403,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" ht="21" spans="1:3">
       <c r="A247" s="6" t="s">
         <v>232</v>
       </c>
@@ -4414,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" ht="21" spans="1:3">
       <c r="A248" s="6" t="s">
         <v>232</v>
       </c>
@@ -4425,7 +5036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" ht="21" spans="1:3">
       <c r="A249" s="6" t="s">
         <v>232</v>
       </c>
@@ -4436,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" ht="21" spans="1:3">
       <c r="A250" s="6" t="s">
         <v>232</v>
       </c>
@@ -4447,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" ht="21" spans="1:3">
       <c r="A251" s="6" t="s">
         <v>232</v>
       </c>
@@ -4458,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" ht="21" spans="1:3">
       <c r="A252" s="6" t="s">
         <v>232</v>
       </c>
@@ -4469,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" ht="21" spans="1:3">
       <c r="A253" s="6" t="s">
         <v>232</v>
       </c>
@@ -4480,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" ht="21" spans="1:3">
       <c r="A254" s="6" t="s">
         <v>232</v>
       </c>
@@ -4491,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" ht="21" spans="1:3">
       <c r="A255" s="6" t="s">
         <v>232</v>
       </c>
@@ -4502,7 +5113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" ht="21" spans="1:3">
       <c r="A256" s="6" t="s">
         <v>232</v>
       </c>
@@ -4513,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" ht="21" spans="1:3">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -4524,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" ht="21" spans="1:3">
       <c r="A258" s="6" t="s">
         <v>232</v>
       </c>
@@ -4535,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" ht="21" spans="1:3">
       <c r="A259" s="6" t="s">
         <v>232</v>
       </c>
@@ -4546,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" ht="21" spans="1:3">
       <c r="A260" s="6" t="s">
         <v>232</v>
       </c>
@@ -4557,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" ht="21" spans="1:3">
       <c r="A261" s="6" t="s">
         <v>232</v>
       </c>
@@ -4568,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" ht="21" spans="1:3">
       <c r="A262" s="6" t="s">
         <v>232</v>
       </c>
@@ -4579,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" ht="21" spans="1:3">
       <c r="A263" s="6" t="s">
         <v>232</v>
       </c>
@@ -4590,7 +5201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" ht="21" spans="1:3">
       <c r="A264" s="6" t="s">
         <v>232</v>
       </c>
@@ -4601,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" ht="21" spans="1:3">
       <c r="A265" s="6" t="s">
         <v>232</v>
       </c>
@@ -4612,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" ht="21" spans="1:3">
       <c r="A266" s="6" t="s">
         <v>232</v>
       </c>
@@ -4623,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" ht="21" spans="1:3">
       <c r="A267" s="6" t="s">
         <v>232</v>
       </c>
@@ -4634,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" ht="21" spans="1:3">
       <c r="A268" s="6" t="s">
         <v>232</v>
       </c>
@@ -4645,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" ht="21" spans="1:3">
       <c r="A269" s="6" t="s">
         <v>232</v>
       </c>
@@ -4656,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" ht="21" spans="1:3">
       <c r="A270" s="6" t="s">
         <v>232</v>
       </c>
@@ -4667,7 +5278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" ht="21" spans="1:3">
       <c r="A271" s="6" t="s">
         <v>232</v>
       </c>
@@ -4678,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" ht="21" spans="1:3">
       <c r="A272" s="6" t="s">
         <v>232</v>
       </c>
@@ -4689,15 +5300,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" ht="21" spans="2:3">
       <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" ht="21" spans="2:3">
       <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" ht="21" spans="1:3">
       <c r="A275" s="6" t="s">
         <v>267</v>
       </c>
@@ -4708,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" ht="21" spans="1:3">
       <c r="A276" s="6" t="s">
         <v>267</v>
       </c>
@@ -4719,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" ht="21" spans="1:3">
       <c r="A277" s="6" t="s">
         <v>267</v>
       </c>
@@ -4730,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" ht="21" spans="1:3">
       <c r="A278" s="6" t="s">
         <v>267</v>
       </c>
@@ -4741,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" ht="21" spans="1:3">
       <c r="A279" s="6" t="s">
         <v>267</v>
       </c>
@@ -4752,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" ht="21" spans="1:3">
       <c r="A280" s="6" t="s">
         <v>267</v>
       </c>
@@ -4763,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" ht="21" spans="1:3">
       <c r="A281" s="6" t="s">
         <v>267</v>
       </c>
@@ -4774,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" ht="21" spans="1:3">
       <c r="A282" s="6" t="s">
         <v>267</v>
       </c>
@@ -4785,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" ht="21" spans="1:3">
       <c r="A283" s="6" t="s">
         <v>267</v>
       </c>
@@ -4796,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" ht="21" spans="1:3">
       <c r="A284" s="6" t="s">
         <v>267</v>
       </c>
@@ -4807,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" ht="21" spans="1:3">
       <c r="A285" s="6" t="s">
         <v>267</v>
       </c>
@@ -4818,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" ht="21" spans="1:3">
       <c r="A286" s="6" t="s">
         <v>267</v>
       </c>
@@ -4829,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" ht="21" spans="1:3">
       <c r="A287" s="6" t="s">
         <v>267</v>
       </c>
@@ -4840,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" ht="21" spans="1:3">
       <c r="A288" s="6" t="s">
         <v>267</v>
       </c>
@@ -4851,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" ht="21" spans="1:3">
       <c r="A289" s="6" t="s">
         <v>267</v>
       </c>
@@ -4862,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" ht="21" spans="1:3">
       <c r="A290" s="6" t="s">
         <v>267</v>
       </c>
@@ -4873,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" ht="21" spans="1:3">
       <c r="A291" s="6" t="s">
         <v>267</v>
       </c>
@@ -4884,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" ht="21" spans="1:3">
       <c r="A292" s="6" t="s">
         <v>267</v>
       </c>
@@ -4895,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" ht="21" spans="1:3">
       <c r="A293" s="6" t="s">
         <v>267</v>
       </c>
@@ -4906,15 +5517,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" ht="21" spans="2:3">
       <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" ht="21" spans="2:3">
       <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" ht="21" spans="1:3">
       <c r="A296" s="6" t="s">
         <v>287</v>
       </c>
@@ -4925,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" ht="21" spans="1:3">
       <c r="A297" s="6" t="s">
         <v>287</v>
       </c>
@@ -4936,7 +5547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" ht="21" spans="1:3">
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
@@ -4947,7 +5558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" ht="21" spans="1:3">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
@@ -4958,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" ht="21" spans="1:3">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
@@ -4969,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" ht="21" spans="1:3">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
@@ -4980,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" ht="21" spans="1:3">
       <c r="A302" s="6" t="s">
         <v>287</v>
       </c>
@@ -4991,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" ht="21" spans="1:3">
       <c r="A303" s="6" t="s">
         <v>287</v>
       </c>
@@ -5002,7 +5613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" ht="21" spans="1:3">
       <c r="A304" s="6" t="s">
         <v>287</v>
       </c>
@@ -5013,7 +5624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row r="305" ht="21" spans="1:3">
       <c r="A305" s="6" t="s">
         <v>287</v>
       </c>
@@ -5024,7 +5635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" ht="21" spans="1:3">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -5035,7 +5646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" ht="21" spans="1:3">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -5046,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" ht="21" spans="1:3">
       <c r="A308" s="6" t="s">
         <v>287</v>
       </c>
@@ -5057,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
@@ -5068,7 +5679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row r="310" ht="21" spans="1:3">
       <c r="A310" s="6" t="s">
         <v>287</v>
       </c>
@@ -5079,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row r="311" ht="21" spans="1:3">
       <c r="A311" s="6" t="s">
         <v>287</v>
       </c>
@@ -5090,7 +5701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" ht="21" spans="1:3">
       <c r="A312" s="6" t="s">
         <v>287</v>
       </c>
@@ -5101,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" ht="21" spans="1:3">
       <c r="A313" s="6" t="s">
         <v>287</v>
       </c>
@@ -5112,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" ht="21" spans="1:3">
       <c r="A314" s="6" t="s">
         <v>287</v>
       </c>
@@ -5123,7 +5734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" ht="21" spans="1:3">
       <c r="A315" s="6" t="s">
         <v>287</v>
       </c>
@@ -5134,7 +5745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" ht="21" spans="1:3">
       <c r="A316" s="6" t="s">
         <v>287</v>
       </c>
@@ -5145,7 +5756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" ht="21" spans="1:3">
       <c r="A317" s="6" t="s">
         <v>287</v>
       </c>
@@ -5156,7 +5767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" ht="21" spans="1:3">
       <c r="A318" s="6" t="s">
         <v>287</v>
       </c>
@@ -5167,7 +5778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" ht="21" spans="1:3">
       <c r="A319" s="6" t="s">
         <v>287</v>
       </c>
@@ -5178,7 +5789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" ht="21" spans="1:3">
       <c r="A320" s="6" t="s">
         <v>287</v>
       </c>
@@ -5189,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" ht="21" spans="1:3">
       <c r="A321" s="6" t="s">
         <v>287</v>
       </c>
@@ -5200,7 +5811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" ht="21" spans="1:3">
       <c r="A322" s="6" t="s">
         <v>287</v>
       </c>
@@ -5211,7 +5822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" ht="21" spans="1:3">
       <c r="A323" s="6" t="s">
         <v>287</v>
       </c>
@@ -5222,7 +5833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" ht="21" spans="1:3">
       <c r="A324" s="6" t="s">
         <v>287</v>
       </c>
@@ -5233,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" ht="21" spans="1:3">
       <c r="A325" s="6" t="s">
         <v>287</v>
       </c>
@@ -5244,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" ht="21" spans="1:3">
       <c r="A326" s="6" t="s">
         <v>287</v>
       </c>
@@ -5255,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" ht="21" spans="1:3">
       <c r="A327" s="6" t="s">
         <v>287</v>
       </c>
@@ -5266,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" ht="21" spans="1:3">
       <c r="A328" s="6" t="s">
         <v>287</v>
       </c>
@@ -5277,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" ht="21" spans="1:3">
       <c r="A329" s="6" t="s">
         <v>287</v>
       </c>
@@ -5288,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" ht="21" spans="1:3">
       <c r="A330" s="6" t="s">
         <v>287</v>
       </c>
@@ -5299,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" ht="21" spans="1:3">
       <c r="A331" s="6" t="s">
         <v>287</v>
       </c>
@@ -5310,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" ht="21" spans="1:3">
       <c r="A332" s="6" t="s">
         <v>287</v>
       </c>
@@ -5321,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" ht="21" spans="1:3">
       <c r="A333" s="6" t="s">
         <v>287</v>
       </c>
@@ -5332,15 +5943,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" ht="21" spans="2:3">
       <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" ht="21" spans="2:3">
       <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" ht="21" spans="1:3">
       <c r="A336" s="10" t="s">
         <v>326</v>
       </c>
@@ -5351,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row r="337" ht="21" spans="1:3">
       <c r="A337" s="10" t="s">
         <v>326</v>
       </c>
@@ -5362,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" ht="21" spans="1:3">
       <c r="A338" s="10" t="s">
         <v>326</v>
       </c>
@@ -5373,7 +5984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" ht="21" spans="1:3">
       <c r="A339" s="10" t="s">
         <v>326</v>
       </c>
@@ -5384,7 +5995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row r="340" ht="21" spans="1:3">
       <c r="A340" s="10" t="s">
         <v>326</v>
       </c>
@@ -5395,7 +6006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row r="341" ht="21" spans="1:3">
       <c r="A341" s="10" t="s">
         <v>326</v>
       </c>
@@ -5406,7 +6017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" ht="21" spans="1:3">
       <c r="A342" s="10" t="s">
         <v>326</v>
       </c>
@@ -5417,7 +6028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" ht="21" spans="1:3">
       <c r="A343" s="10" t="s">
         <v>326</v>
       </c>
@@ -5428,7 +6039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" ht="21" spans="1:3">
       <c r="A344" s="10" t="s">
         <v>326</v>
       </c>
@@ -5439,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" ht="21" spans="1:3">
       <c r="A345" s="10" t="s">
         <v>326</v>
       </c>
@@ -5450,7 +6061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row r="346" ht="21" spans="1:3">
       <c r="A346" s="10" t="s">
         <v>326</v>
       </c>
@@ -5461,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row r="347" ht="21" spans="1:3">
       <c r="A347" s="10" t="s">
         <v>326</v>
       </c>
@@ -5472,7 +6083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" ht="21" spans="1:3">
       <c r="A348" s="10" t="s">
         <v>326</v>
       </c>
@@ -5483,7 +6094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" ht="21" spans="1:3">
       <c r="A349" s="10" t="s">
         <v>326</v>
       </c>
@@ -5494,7 +6105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" ht="21" spans="1:3">
       <c r="A350" s="10" t="s">
         <v>326</v>
       </c>
@@ -5505,7 +6116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" ht="21" spans="1:3">
       <c r="A351" s="10" t="s">
         <v>326</v>
       </c>
@@ -5516,7 +6127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" ht="21" spans="1:3">
       <c r="A352" s="10" t="s">
         <v>326</v>
       </c>
@@ -5527,7 +6138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" ht="21" spans="1:3">
       <c r="A353" s="10" t="s">
         <v>326</v>
       </c>
@@ -5538,15 +6149,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" ht="21" spans="2:3">
       <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" ht="21" spans="2:3">
       <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" ht="21" spans="1:3">
       <c r="A356" s="10" t="s">
         <v>345</v>
       </c>
@@ -5557,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row r="357" ht="21" spans="1:3">
       <c r="A357" s="10" t="s">
         <v>345</v>
       </c>
@@ -5568,7 +6179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row r="358" ht="21" spans="1:3">
       <c r="A358" s="10" t="s">
         <v>345</v>
       </c>
@@ -5579,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row r="359" ht="21" spans="1:3">
       <c r="A359" s="10" t="s">
         <v>345</v>
       </c>
@@ -5590,7 +6201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row r="360" ht="21" spans="1:3">
       <c r="A360" s="10" t="s">
         <v>345</v>
       </c>
@@ -5601,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
+    <row r="361" ht="21" spans="1:3">
       <c r="A361" s="10" t="s">
         <v>345</v>
       </c>
@@ -5612,7 +6223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row r="362" ht="21" spans="1:3">
       <c r="A362" s="10" t="s">
         <v>345</v>
       </c>
@@ -5623,7 +6234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row r="363" ht="21" spans="1:3">
       <c r="A363" s="10" t="s">
         <v>345</v>
       </c>
@@ -5634,7 +6245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row r="364" ht="21" spans="1:3">
       <c r="A364" s="10" t="s">
         <v>345</v>
       </c>
@@ -5645,7 +6256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row r="365" ht="21" spans="1:3">
       <c r="A365" s="10" t="s">
         <v>345</v>
       </c>
@@ -5656,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row r="366" ht="21" spans="1:3">
       <c r="A366" s="10" t="s">
         <v>345</v>
       </c>
@@ -5667,7 +6278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row r="367" ht="21" spans="1:3">
       <c r="A367" s="10" t="s">
         <v>345</v>
       </c>
@@ -5678,7 +6289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" ht="21" spans="1:3">
       <c r="A368" s="10" t="s">
         <v>345</v>
       </c>
@@ -5689,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" ht="21" spans="1:3">
       <c r="A369" s="10" t="s">
         <v>345</v>
       </c>
@@ -5700,7 +6311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" ht="21" spans="1:3">
       <c r="A370" s="10" t="s">
         <v>345</v>
       </c>
@@ -5711,7 +6322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" ht="21" spans="1:3">
       <c r="A371" s="10" t="s">
         <v>345</v>
       </c>
@@ -5722,7 +6333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" ht="21" spans="1:3">
       <c r="A372" s="10" t="s">
         <v>345</v>
       </c>
@@ -5733,7 +6344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" ht="21" spans="1:3">
       <c r="A373" s="10" t="s">
         <v>345</v>
       </c>
@@ -5744,7 +6355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" ht="21" spans="1:3">
       <c r="A374" s="10" t="s">
         <v>345</v>
       </c>
@@ -5755,7 +6366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" ht="21" spans="1:3">
       <c r="A375" s="10" t="s">
         <v>345</v>
       </c>
@@ -5766,7 +6377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" ht="21" spans="1:3">
       <c r="A376" s="10" t="s">
         <v>345</v>
       </c>
@@ -5777,7 +6388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" ht="21" spans="1:3">
       <c r="A377" s="10" t="s">
         <v>345</v>
       </c>
@@ -5788,7 +6399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" ht="21" spans="1:3">
       <c r="A378" s="10" t="s">
         <v>345</v>
       </c>
@@ -5799,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" ht="21" spans="1:3">
       <c r="A379" s="10" t="s">
         <v>345</v>
       </c>
@@ -5810,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" ht="21" spans="1:3">
       <c r="A380" s="10" t="s">
         <v>345</v>
       </c>
@@ -5821,7 +6432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" ht="21" spans="1:3">
       <c r="A381" s="10" t="s">
         <v>345</v>
       </c>
@@ -5832,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" ht="21" spans="1:3">
       <c r="A382" s="10" t="s">
         <v>345</v>
       </c>
@@ -5843,7 +6454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" ht="21" spans="1:3">
       <c r="A383" s="10" t="s">
         <v>345</v>
       </c>
@@ -5854,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" ht="21" spans="1:3">
       <c r="A384" s="10" t="s">
         <v>345</v>
       </c>
@@ -5865,7 +6476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row r="385" ht="21" spans="1:3">
       <c r="A385" s="10" t="s">
         <v>345</v>
       </c>
@@ -5876,7 +6487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row r="386" ht="21" spans="1:3">
       <c r="A386" s="10" t="s">
         <v>345</v>
       </c>
@@ -5887,7 +6498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row r="387" ht="21" spans="1:3">
       <c r="A387" s="10" t="s">
         <v>345</v>
       </c>
@@ -5898,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row r="388" ht="21" spans="1:3">
       <c r="A388" s="10" t="s">
         <v>345</v>
       </c>
@@ -5909,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row r="389" ht="21" spans="1:3">
       <c r="A389" s="10" t="s">
         <v>345</v>
       </c>
@@ -5920,7 +6531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" ht="21" spans="1:3">
       <c r="A390" s="10" t="s">
         <v>345</v>
       </c>
@@ -5931,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" ht="21" spans="1:3">
       <c r="A391" s="10" t="s">
         <v>345</v>
       </c>
@@ -5942,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row r="392" ht="21" spans="1:3">
       <c r="A392" s="10" t="s">
         <v>345</v>
       </c>
@@ -5953,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" ht="21" spans="1:3">
       <c r="A393" s="10" t="s">
         <v>345</v>
       </c>
@@ -5964,7 +6575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row r="394" ht="21" spans="1:3">
       <c r="A394" s="10" t="s">
         <v>345</v>
       </c>
@@ -5975,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" ht="21" spans="1:3">
       <c r="A395" s="10" t="s">
         <v>345</v>
       </c>
@@ -5986,7 +6597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row r="396" ht="21" spans="1:3">
       <c r="A396" s="10" t="s">
         <v>345</v>
       </c>
@@ -5997,7 +6608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row r="397" ht="21" spans="1:3">
       <c r="A397" s="10" t="s">
         <v>345</v>
       </c>
@@ -6008,7 +6619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row r="398" ht="21" spans="1:3">
       <c r="A398" s="10" t="s">
         <v>345</v>
       </c>
@@ -6019,7 +6630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" ht="21" spans="1:3">
       <c r="A399" s="10" t="s">
         <v>345</v>
       </c>
@@ -6030,15 +6641,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row r="400" ht="21" spans="2:3">
       <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" ht="21" spans="2:3">
       <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" ht="21" spans="1:3">
       <c r="A402" s="10" t="s">
         <v>389</v>
       </c>
@@ -6049,7 +6660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" ht="21" spans="1:3">
       <c r="A403" s="10" t="s">
         <v>389</v>
       </c>
@@ -6060,7 +6671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" ht="21" spans="1:3">
       <c r="A404" s="10" t="s">
         <v>389</v>
       </c>
@@ -6071,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row r="405" ht="21" spans="1:3">
       <c r="A405" s="10" t="s">
         <v>389</v>
       </c>
@@ -6082,7 +6693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row r="406" ht="21" spans="1:3">
       <c r="A406" s="10" t="s">
         <v>389</v>
       </c>
@@ -6093,7 +6704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" ht="21" spans="1:3">
       <c r="A407" s="10" t="s">
         <v>389</v>
       </c>
@@ -6104,15 +6715,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" ht="21" spans="2:3">
       <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" ht="21" spans="2:3">
       <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" ht="21" spans="1:3">
       <c r="A410" s="6" t="s">
         <v>395</v>
       </c>
@@ -6123,7 +6734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" ht="21" spans="1:3">
       <c r="A411" s="6" t="s">
         <v>395</v>
       </c>
@@ -6134,7 +6745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" ht="21" spans="1:3">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -6145,7 +6756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" ht="21" spans="1:3">
       <c r="A413" s="6" t="s">
         <v>395</v>
       </c>
@@ -6156,7 +6767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" ht="21" spans="1:3">
       <c r="A414" s="6" t="s">
         <v>395</v>
       </c>
@@ -6167,7 +6778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row r="415" ht="21" spans="1:3">
       <c r="A415" s="6" t="s">
         <v>395</v>
       </c>
@@ -6178,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" ht="21" spans="1:3">
       <c r="A416" s="6" t="s">
         <v>395</v>
       </c>
@@ -6189,7 +6800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" ht="21" spans="1:3">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -6200,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" ht="21" spans="1:3">
       <c r="A418" s="6" t="s">
         <v>395</v>
       </c>
@@ -6211,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" ht="21" spans="1:3">
       <c r="A419" s="6" t="s">
         <v>395</v>
       </c>
@@ -6222,7 +6833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" ht="21" spans="1:3">
       <c r="A420" s="6" t="s">
         <v>395</v>
       </c>
@@ -6233,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" ht="21" spans="1:3">
       <c r="A421" s="6" t="s">
         <v>395</v>
       </c>
@@ -6244,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" ht="21" spans="1:3">
       <c r="A422" s="6" t="s">
         <v>395</v>
       </c>
@@ -6255,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" ht="21" spans="1:3">
       <c r="A423" s="6" t="s">
         <v>395</v>
       </c>
@@ -6266,7 +6877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" ht="21" spans="1:3">
       <c r="A424" s="6" t="s">
         <v>395</v>
       </c>
@@ -6277,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" ht="21" spans="1:3">
       <c r="A425" s="6" t="s">
         <v>395</v>
       </c>
@@ -6288,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" ht="21" spans="1:3">
       <c r="A426" s="6" t="s">
         <v>395</v>
       </c>
@@ -6299,7 +6910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" ht="21" spans="1:3">
       <c r="A427" s="6" t="s">
         <v>395</v>
       </c>
@@ -6310,7 +6921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" ht="21" spans="1:3">
       <c r="A428" s="6" t="s">
         <v>395</v>
       </c>
@@ -6321,7 +6932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" ht="21" spans="1:3">
       <c r="A429" s="6" t="s">
         <v>395</v>
       </c>
@@ -6332,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" ht="21" spans="1:3">
       <c r="A430" s="6" t="s">
         <v>395</v>
       </c>
@@ -6343,7 +6954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" ht="21" spans="1:3">
       <c r="A431" s="6" t="s">
         <v>395</v>
       </c>
@@ -6354,7 +6965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" ht="21" spans="1:3">
       <c r="A432" s="6" t="s">
         <v>395</v>
       </c>
@@ -6365,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" ht="21" spans="1:3">
       <c r="A433" s="6" t="s">
         <v>395</v>
       </c>
@@ -6376,7 +6987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" ht="21" spans="1:3">
       <c r="A434" s="6" t="s">
         <v>395</v>
       </c>
@@ -6387,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" ht="21" spans="1:3">
       <c r="A435" s="6" t="s">
         <v>395</v>
       </c>
@@ -6398,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" ht="21" spans="1:3">
       <c r="A436" s="6" t="s">
         <v>395</v>
       </c>
@@ -6409,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" ht="21" spans="1:3">
       <c r="A437" s="6" t="s">
         <v>395</v>
       </c>
@@ -6420,7 +7031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" ht="21" spans="1:3">
       <c r="A438" s="6" t="s">
         <v>395</v>
       </c>
@@ -6431,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" ht="21" spans="1:3">
       <c r="A439" s="6" t="s">
         <v>395</v>
       </c>
@@ -6442,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" ht="21" spans="1:3">
       <c r="A440" s="6" t="s">
         <v>395</v>
       </c>
@@ -6453,7 +7064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" ht="21" spans="1:3">
       <c r="A441" s="6" t="s">
         <v>395</v>
       </c>
@@ -6464,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" ht="21" spans="1:3">
       <c r="A442" s="6" t="s">
         <v>395</v>
       </c>
@@ -6475,7 +7086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" ht="21" spans="1:3">
       <c r="A443" s="6" t="s">
         <v>395</v>
       </c>
@@ -6486,7 +7097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" ht="21" spans="1:3">
       <c r="A444" s="6" t="s">
         <v>395</v>
       </c>
@@ -6497,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" ht="21" spans="1:3">
       <c r="A445" s="6" t="s">
         <v>395</v>
       </c>
@@ -6508,7 +7119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" ht="21" spans="1:3">
       <c r="A446" s="6" t="s">
         <v>395</v>
       </c>
@@ -6519,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" ht="21" spans="1:3">
       <c r="A447" s="6" t="s">
         <v>395</v>
       </c>
@@ -6530,7 +7141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" ht="21" spans="1:3">
       <c r="A448" s="6" t="s">
         <v>395</v>
       </c>
@@ -6541,7 +7152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" ht="21" spans="1:3">
       <c r="A449" s="6" t="s">
         <v>395</v>
       </c>
@@ -6552,7 +7163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" ht="21" spans="1:3">
       <c r="A450" s="6" t="s">
         <v>395</v>
       </c>
@@ -6563,7 +7174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" ht="21" spans="1:3">
       <c r="A451" s="6" t="s">
         <v>395</v>
       </c>
@@ -6574,7 +7185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" ht="21" spans="1:3">
       <c r="A452" s="6" t="s">
         <v>395</v>
       </c>
@@ -6585,7 +7196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" ht="21" spans="1:3">
       <c r="A453" s="6" t="s">
         <v>395</v>
       </c>
@@ -6596,7 +7207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" ht="21" spans="1:3">
       <c r="A454" s="6" t="s">
         <v>395</v>
       </c>
@@ -6607,7 +7218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" ht="21" spans="1:3">
       <c r="A455" s="6" t="s">
         <v>395</v>
       </c>
@@ -6618,7 +7229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" ht="21" spans="1:3">
       <c r="A456" s="6" t="s">
         <v>395</v>
       </c>
@@ -6629,7 +7240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" ht="21" spans="1:3">
       <c r="A457" s="6" t="s">
         <v>395</v>
       </c>
@@ -6640,7 +7251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" ht="21" spans="1:3">
       <c r="A458" s="6" t="s">
         <v>395</v>
       </c>
@@ -6651,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" ht="21" spans="1:3">
       <c r="A459" s="6" t="s">
         <v>395</v>
       </c>
@@ -6662,7 +7273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" ht="21" spans="1:3">
       <c r="A460" s="6" t="s">
         <v>395</v>
       </c>
@@ -6673,7 +7284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" ht="21" spans="1:3">
       <c r="A461" s="6" t="s">
         <v>395</v>
       </c>
@@ -6684,7 +7295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" ht="21" spans="1:3">
       <c r="A462" s="6" t="s">
         <v>395</v>
       </c>
@@ -6695,7 +7306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" ht="21" spans="1:3">
       <c r="A463" s="6" t="s">
         <v>395</v>
       </c>
@@ -6706,7 +7317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" ht="21" spans="1:3">
       <c r="A464" s="6" t="s">
         <v>395</v>
       </c>
@@ -6717,7 +7328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" ht="21" spans="1:3">
       <c r="A465" s="6" t="s">
         <v>395</v>
       </c>
@@ -6728,7 +7339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" ht="21" spans="1:3">
       <c r="A466" s="6" t="s">
         <v>395</v>
       </c>
@@ -6739,7 +7350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" ht="21" spans="1:3">
       <c r="A467" s="6" t="s">
         <v>395</v>
       </c>
@@ -6750,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" ht="21" spans="1:3">
       <c r="A468" s="6" t="s">
         <v>395</v>
       </c>
@@ -6761,7 +7372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" ht="21" spans="1:3">
       <c r="A469" s="6" t="s">
         <v>395</v>
       </c>
@@ -6772,16 +7383,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" ht="21" spans="2:3">
       <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" ht="21" spans="1:3">
       <c r="A471" s="10"/>
       <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" ht="21" spans="1:3">
       <c r="A472" s="6" t="s">
         <v>455</v>
       </c>
@@ -6792,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" ht="21" spans="1:3">
       <c r="A473" s="6" t="s">
         <v>455</v>
       </c>
@@ -6803,7 +7414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" ht="21" spans="1:3">
       <c r="A474" s="6" t="s">
         <v>455</v>
       </c>
@@ -6814,7 +7425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" ht="21" spans="1:3">
       <c r="A475" s="6" t="s">
         <v>455</v>
       </c>
@@ -6825,7 +7436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" ht="21" spans="1:3">
       <c r="A476" s="6" t="s">
         <v>455</v>
       </c>
@@ -6836,7 +7447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" ht="21" spans="1:3">
       <c r="A477" s="6" t="s">
         <v>455</v>
       </c>
@@ -6847,7 +7458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" ht="21" spans="1:3">
       <c r="A478" s="6" t="s">
         <v>455</v>
       </c>
@@ -6858,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
@@ -6869,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" ht="21" spans="1:3">
       <c r="A480" s="6" t="s">
         <v>455</v>
       </c>
@@ -6880,7 +7491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row r="481" ht="21" spans="1:3">
       <c r="A481" s="6" t="s">
         <v>455</v>
       </c>
@@ -6893,453 +7504,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B257" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B306" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B379" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B480" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
+    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
+    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
+    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9045"/>
+    <workbookView windowWidth="24000" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,8 +1419,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1504,7 +1504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,7 +1518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,7 +1526,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,14 +1550,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,13 +1594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1602,23 +1602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,9 +1617,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,37 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,25 +1678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,19 +1720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,13 +1762,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,49 +1810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,16 +1843,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1906,16 +1906,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,10 +1945,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1961,37 +1961,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2000,88 +2000,88 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -3489,14 +3489,14 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3507,7 +3507,7 @@
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1504,13 +1504,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1526,7 +1519,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,21 +1543,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,14 +1580,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1603,15 +1588,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,7 +1618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,6 +1626,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,13 +1714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,49 +1756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,19 +1804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,37 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,16 +1843,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1905,26 +1905,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,10 +1942,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1957,131 +1954,134 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -3731,7 +3731,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3742,18 +3742,18 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
